--- a/Code/Results/Cases/Case_1_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.04315644656515</v>
+        <v>12.04315644656516</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.462113690272606</v>
+        <v>2.462113690272703</v>
       </c>
       <c r="E2">
-        <v>13.46742847062754</v>
+        <v>13.46742847062758</v>
       </c>
       <c r="F2">
-        <v>34.81218193275762</v>
+        <v>34.81218193275766</v>
       </c>
       <c r="G2">
-        <v>26.73673118402214</v>
+        <v>26.73673118402219</v>
       </c>
       <c r="H2">
-        <v>11.74010412441228</v>
+        <v>11.74010412441236</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>35.45224213650944</v>
+        <v>35.45224213650939</v>
       </c>
       <c r="K2">
-        <v>20.86957794235782</v>
+        <v>20.86957794235773</v>
       </c>
       <c r="L2">
-        <v>18.83919901906908</v>
+        <v>18.83919901906905</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.24387270152661</v>
+        <v>11.24387270152659</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.543864483709827</v>
+        <v>2.543864483709823</v>
       </c>
       <c r="E3">
-        <v>12.89547568088512</v>
+        <v>12.89547568088508</v>
       </c>
       <c r="F3">
-        <v>32.55964908711172</v>
+        <v>32.55964908711174</v>
       </c>
       <c r="G3">
-        <v>25.11263249282783</v>
+        <v>25.11263249282785</v>
       </c>
       <c r="H3">
-        <v>12.37943894692004</v>
+        <v>12.37943894692001</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>33.03941320633809</v>
+        <v>33.03941320633801</v>
       </c>
       <c r="K3">
-        <v>19.37547172547871</v>
+        <v>19.37547172547868</v>
       </c>
       <c r="L3">
-        <v>17.56893216025047</v>
+        <v>17.56893216025044</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.72589079801127</v>
+        <v>10.72589079801136</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.601471322042957</v>
+        <v>2.601471322042916</v>
       </c>
       <c r="E4">
-        <v>12.53573036189236</v>
+        <v>12.5357303618923</v>
       </c>
       <c r="F4">
-        <v>31.16188674784376</v>
+        <v>31.16188674784375</v>
       </c>
       <c r="G4">
-        <v>24.11462698954518</v>
+        <v>24.11462698954519</v>
       </c>
       <c r="H4">
         <v>12.77787471089389</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>31.48391191169518</v>
+        <v>31.48391191169513</v>
       </c>
       <c r="K4">
-        <v>18.41400627365452</v>
+        <v>18.41400627365442</v>
       </c>
       <c r="L4">
-        <v>16.75065661474024</v>
+        <v>16.75065661474022</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.50790558107979</v>
+        <v>10.50790558107976</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.626551839127724</v>
+        <v>2.626551839127755</v>
       </c>
       <c r="E5">
-        <v>12.3870085422436</v>
+        <v>12.38700854224355</v>
       </c>
       <c r="F5">
-        <v>30.58880708450079</v>
+        <v>30.58880708450081</v>
       </c>
       <c r="G5">
-        <v>23.70792513629688</v>
+        <v>23.7079251362969</v>
       </c>
       <c r="H5">
-        <v>12.94189070034249</v>
+        <v>12.94189070034255</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>30.83111063044405</v>
+        <v>30.83111063044396</v>
       </c>
       <c r="K5">
-        <v>18.01085838671713</v>
+        <v>18.01085838671709</v>
       </c>
       <c r="L5">
-        <v>16.40741712401909</v>
+        <v>16.40741712401905</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.47129077681521</v>
+        <v>10.47129077681516</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.630806692775217</v>
+        <v>2.630806692775379</v>
       </c>
       <c r="E6">
         <v>12.36218668080365</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>30.72156237530306</v>
+        <v>30.72156237530304</v>
       </c>
       <c r="K6">
-        <v>17.94322372511238</v>
+        <v>17.94322372511239</v>
       </c>
       <c r="L6">
-        <v>16.34982756161719</v>
+        <v>16.34982756161716</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -608,13 +608,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.601803375729638</v>
+        <v>2.601803375729688</v>
       </c>
       <c r="E7">
-        <v>12.53373317913576</v>
+        <v>12.53373317913575</v>
       </c>
       <c r="F7">
-        <v>31.1541716644605</v>
+        <v>31.15417166446047</v>
       </c>
       <c r="G7">
         <v>24.10914173919402</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>31.47518499941751</v>
+        <v>31.47518499941752</v>
       </c>
       <c r="K7">
-        <v>18.40861553488302</v>
+        <v>18.40861553488303</v>
       </c>
       <c r="L7">
-        <v>16.7460673674423</v>
+        <v>16.74606736744231</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,31 +646,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.488592859051026</v>
+        <v>2.488592859050994</v>
       </c>
       <c r="E8">
-        <v>13.27200520624455</v>
+        <v>13.27200520624458</v>
       </c>
       <c r="F8">
-        <v>34.03862966538544</v>
+        <v>34.03862966538549</v>
       </c>
       <c r="G8">
-        <v>26.17698367828834</v>
+        <v>26.17698367828835</v>
       </c>
       <c r="H8">
-        <v>11.95943374953921</v>
+        <v>11.95943374953914</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>34.63546002183907</v>
+        <v>34.63546002183919</v>
       </c>
       <c r="K8">
-        <v>20.36339555453021</v>
+        <v>20.36339555453032</v>
       </c>
       <c r="L8">
-        <v>18.40906914908492</v>
+        <v>18.40906914908502</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.61972824708172</v>
+        <v>13.61972824708171</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.339689021835109</v>
+        <v>2.339689021835019</v>
       </c>
       <c r="E9">
-        <v>14.65226098662642</v>
+        <v>14.65226098662631</v>
       </c>
       <c r="F9">
-        <v>39.90035113998206</v>
+        <v>39.90035113998183</v>
       </c>
       <c r="G9">
-        <v>30.632746267982</v>
+        <v>30.63274626798184</v>
       </c>
       <c r="H9">
-        <v>10.38825407164363</v>
+        <v>10.38825407164355</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>40.2619231274863</v>
+        <v>40.26192312748613</v>
       </c>
       <c r="K9">
-        <v>23.85996850947111</v>
+        <v>23.85996850947101</v>
       </c>
       <c r="L9">
-        <v>21.37409912705661</v>
+        <v>21.37409912705654</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.85155929085018</v>
+        <v>14.85155929085019</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.581846697249826</v>
+        <v>2.581846697249786</v>
       </c>
       <c r="E10">
-        <v>15.62883429369472</v>
+        <v>15.62883429369473</v>
       </c>
       <c r="F10">
-        <v>44.19747973444215</v>
+        <v>44.19747973444233</v>
       </c>
       <c r="G10">
-        <v>34.00492119413167</v>
+        <v>34.0049211941318</v>
       </c>
       <c r="H10">
-        <v>9.243821261861902</v>
+        <v>9.243821261861846</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>44.07475703247717</v>
+        <v>44.07475703247722</v>
       </c>
       <c r="K10">
-        <v>26.24417420614111</v>
+        <v>26.24417420614117</v>
       </c>
       <c r="L10">
-        <v>23.38526143925855</v>
+        <v>23.38526143925859</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.38613441514006</v>
+        <v>15.38613441514004</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.748441921147597</v>
+        <v>2.748441921147609</v>
       </c>
       <c r="E11">
-        <v>16.06672868499777</v>
+        <v>16.06672868499786</v>
       </c>
       <c r="F11">
-        <v>46.13365450446303</v>
+        <v>46.13365450446306</v>
       </c>
       <c r="G11">
-        <v>35.52462704568413</v>
+        <v>35.52462704568416</v>
       </c>
       <c r="H11">
-        <v>8.721976615262173</v>
+        <v>8.721976615262239</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>45.7470396570648</v>
+        <v>45.74703965706483</v>
       </c>
       <c r="K11">
-        <v>27.29414865656888</v>
+        <v>27.29414865656887</v>
       </c>
       <c r="L11">
-        <v>24.26751976401883</v>
+        <v>24.26751976401882</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -798,31 +798,31 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.812172329150194</v>
+        <v>2.812172329150153</v>
       </c>
       <c r="E12">
-        <v>16.23186044240148</v>
+        <v>16.23186044240153</v>
       </c>
       <c r="F12">
-        <v>46.86537012589385</v>
+        <v>46.86537012589379</v>
       </c>
       <c r="G12">
-        <v>36.09904574841127</v>
+        <v>36.09904574841123</v>
       </c>
       <c r="H12">
-        <v>8.523878232019722</v>
+        <v>8.523878232019721</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>46.37209633987925</v>
+        <v>46.37209633987921</v>
       </c>
       <c r="K12">
-        <v>27.68731208161068</v>
+        <v>27.6873120816106</v>
       </c>
       <c r="L12">
-        <v>24.59728337284124</v>
+        <v>24.59728337284119</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.54231196552916</v>
+        <v>15.54231196552914</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.798414736922719</v>
+        <v>2.798414736922657</v>
       </c>
       <c r="E13">
-        <v>16.19632264469422</v>
+        <v>16.19632264469413</v>
       </c>
       <c r="F13">
         <v>46.7078251032211</v>
       </c>
       <c r="G13">
-        <v>35.97536313402606</v>
+        <v>35.97536313402603</v>
       </c>
       <c r="H13">
-        <v>8.56656911784591</v>
+        <v>8.566569117845908</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>46.23783061567353</v>
+        <v>46.2378306156735</v>
       </c>
       <c r="K13">
-        <v>27.60282516828626</v>
+        <v>27.6028251682863</v>
       </c>
       <c r="L13">
         <v>24.52644889982732</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.4025646401027</v>
+        <v>15.40256464010271</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.753670917605485</v>
+        <v>2.753670917605524</v>
       </c>
       <c r="E14">
-        <v>16.0803264382215</v>
+        <v>16.08032643822149</v>
       </c>
       <c r="F14">
-        <v>46.19387471065817</v>
+        <v>46.19387471065813</v>
       </c>
       <c r="G14">
-        <v>35.57189951653738</v>
+        <v>35.57189951653735</v>
       </c>
       <c r="H14">
-        <v>8.705690565819749</v>
+        <v>8.705690565819751</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>45.79862305459254</v>
+        <v>45.7986230545925</v>
       </c>
       <c r="K14">
-        <v>27.32658000311589</v>
+        <v>27.32658000311588</v>
       </c>
       <c r="L14">
         <v>24.29473404975166</v>
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.31650213792228</v>
+        <v>15.31650213792227</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.7263542558907</v>
+        <v>2.726354255890906</v>
       </c>
       <c r="E15">
-        <v>16.00919356264095</v>
+        <v>16.00919356264096</v>
       </c>
       <c r="F15">
-        <v>45.87891445153212</v>
+        <v>45.87891445153213</v>
       </c>
       <c r="G15">
         <v>35.32466188508091</v>
       </c>
       <c r="H15">
-        <v>8.790833417433634</v>
+        <v>8.790833417433705</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>45.5285521551309</v>
+        <v>45.52855215513088</v>
       </c>
       <c r="K15">
-        <v>27.15681129182761</v>
+        <v>27.15681129182764</v>
       </c>
       <c r="L15">
-        <v>24.15225020742912</v>
+        <v>24.15225020742913</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.81611458550192</v>
+        <v>14.81611458550191</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.571038298348434</v>
+        <v>2.571038298348495</v>
       </c>
       <c r="E16">
-        <v>15.60010654606401</v>
+        <v>15.60010654606396</v>
       </c>
       <c r="F16">
-        <v>44.07066797099409</v>
+        <v>44.07066797099412</v>
       </c>
       <c r="G16">
         <v>33.90539681337587</v>
       </c>
       <c r="H16">
-        <v>9.277874304441401</v>
+        <v>9.277874304441372</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>43.96427846107107</v>
+        <v>43.96427846107106</v>
       </c>
       <c r="K16">
-        <v>26.17490339968593</v>
+        <v>26.17490339968597</v>
       </c>
       <c r="L16">
-        <v>23.32697685693495</v>
+        <v>23.32697685693499</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.50261870414634</v>
+        <v>14.5026187041463</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.476690467099942</v>
+        <v>2.476690467099969</v>
       </c>
       <c r="E17">
-        <v>15.34765494360007</v>
+        <v>15.34765494360004</v>
       </c>
       <c r="F17">
-        <v>42.95736725222764</v>
+        <v>42.95736725222766</v>
       </c>
       <c r="G17">
-        <v>33.03169583439663</v>
+        <v>33.03169583439664</v>
       </c>
       <c r="H17">
-        <v>9.57612968465634</v>
+        <v>9.576129684656372</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>42.98920624386977</v>
+        <v>42.98920624386978</v>
       </c>
       <c r="K17">
-        <v>25.56402531535779</v>
+        <v>25.56402531535781</v>
       </c>
       <c r="L17">
         <v>22.81258071420778</v>
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.31986838996522</v>
+        <v>14.31986838996517</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.422708645429885</v>
+        <v>2.422708645429804</v>
       </c>
       <c r="E18">
-        <v>15.20183604904748</v>
+        <v>15.20183604904747</v>
       </c>
       <c r="F18">
-        <v>42.31518604130778</v>
+        <v>42.3151860413078</v>
       </c>
       <c r="G18">
-        <v>32.52774639861411</v>
+        <v>32.52774639861413</v>
       </c>
       <c r="H18">
-        <v>9.747582166582136</v>
+        <v>9.747582166582133</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>42.42246498973311</v>
+        <v>42.42246498973312</v>
       </c>
       <c r="K18">
-        <v>25.20936958397212</v>
+        <v>25.20936958397216</v>
       </c>
       <c r="L18">
-        <v>22.51361729273367</v>
+        <v>22.51361729273365</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.25757049042747</v>
+        <v>14.25757049042742</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.404475057681474</v>
+        <v>2.404475057681572</v>
       </c>
       <c r="E19">
         <v>15.15235290057531</v>
       </c>
       <c r="F19">
-        <v>42.09740647726662</v>
+        <v>42.09740647726663</v>
       </c>
       <c r="G19">
-        <v>32.35684725784319</v>
+        <v>32.35684725784323</v>
       </c>
       <c r="H19">
         <v>9.805625514694242</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>42.22954131127786</v>
+        <v>42.22954131127787</v>
       </c>
       <c r="K19">
-        <v>25.08870837693642</v>
+        <v>25.08870837693646</v>
       </c>
       <c r="L19">
-        <v>22.41185153082198</v>
+        <v>22.41185153082199</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.53624214163035</v>
+        <v>14.53624214163036</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.486703257575714</v>
+        <v>2.486703257575638</v>
       </c>
       <c r="E20">
         <v>15.37459114481056</v>
       </c>
       <c r="F20">
-        <v>43.07606266064054</v>
+        <v>43.07606266064049</v>
       </c>
       <c r="G20">
-        <v>33.12484324345492</v>
+        <v>33.12484324345487</v>
       </c>
       <c r="H20">
         <v>9.544391996488061</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>43.09361057659418</v>
+        <v>43.09361057659412</v>
       </c>
       <c r="K20">
-        <v>25.62939171471765</v>
+        <v>25.62939171471759</v>
       </c>
       <c r="L20">
-        <v>22.86765708841958</v>
+        <v>22.86765708841955</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.44370811148609</v>
+        <v>15.4437081114861</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.766794064331225</v>
+        <v>2.766794064331286</v>
       </c>
       <c r="E21">
-        <v>16.11441388516901</v>
+        <v>16.11441388516892</v>
       </c>
       <c r="F21">
-        <v>46.3448632435058</v>
+        <v>46.3448632435056</v>
       </c>
       <c r="G21">
-        <v>35.6904262186769</v>
+        <v>35.69042621867674</v>
       </c>
       <c r="H21">
-        <v>8.664843034324909</v>
+        <v>8.664843034325012</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>45.92784492142189</v>
+        <v>45.92784492142172</v>
       </c>
       <c r="K21">
-        <v>27.40783563299547</v>
+        <v>27.40783563299538</v>
       </c>
       <c r="L21">
-        <v>24.36290857139783</v>
+        <v>24.36290857139779</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.01595139134193</v>
+        <v>16.01595139134194</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.953724494423251</v>
+        <v>2.953724494423215</v>
       </c>
       <c r="E22">
-        <v>16.59407395793858</v>
+        <v>16.59407395793854</v>
       </c>
       <c r="F22">
-        <v>48.47342233386956</v>
+        <v>48.47342233386948</v>
       </c>
       <c r="G22">
-        <v>37.36164322453035</v>
+        <v>37.36164322453032</v>
       </c>
       <c r="H22">
-        <v>8.087007924278449</v>
+        <v>8.087007924278442</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>47.7328319009067</v>
+        <v>47.73283190090672</v>
       </c>
       <c r="K22">
-        <v>28.54459785919664</v>
+        <v>28.54459785919661</v>
       </c>
       <c r="L22">
-        <v>25.31513064038907</v>
+        <v>25.31513064038906</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.71239612426704</v>
+        <v>15.71239612426703</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.853528127335903</v>
+        <v>2.853528127335899</v>
       </c>
       <c r="E23">
-        <v>16.33832880118974</v>
+        <v>16.33832880118986</v>
       </c>
       <c r="F23">
-        <v>47.33760357710189</v>
+        <v>47.33760357710198</v>
       </c>
       <c r="G23">
-        <v>36.4697959015276</v>
+        <v>36.46979590152766</v>
       </c>
       <c r="H23">
-        <v>8.395792053640138</v>
+        <v>8.395792053639994</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>46.77352611207765</v>
+        <v>46.77352611207773</v>
       </c>
       <c r="K23">
-        <v>27.9400215699561</v>
+        <v>27.94002156995614</v>
       </c>
       <c r="L23">
-        <v>24.80906251208846</v>
+        <v>24.8090625120885</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1254,31 +1254,31 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.482175678769834</v>
+        <v>2.482175678769906</v>
       </c>
       <c r="E24">
-        <v>15.36241542537361</v>
+        <v>15.36241542537357</v>
       </c>
       <c r="F24">
-        <v>43.02240718696437</v>
+        <v>43.02240718696436</v>
       </c>
       <c r="G24">
         <v>33.08273650202642</v>
       </c>
       <c r="H24">
-        <v>9.558740640033692</v>
+        <v>9.558740640033689</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>43.04642861640411</v>
+        <v>43.04642861640412</v>
       </c>
       <c r="K24">
-        <v>25.59985036254859</v>
+        <v>25.59985036254862</v>
       </c>
       <c r="L24">
-        <v>22.84276714753408</v>
+        <v>22.8427671475341</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.14250320010001</v>
+        <v>13.14250320010002</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.369902504110061</v>
+        <v>2.369902504110046</v>
       </c>
       <c r="E25">
-        <v>14.28587372932921</v>
+        <v>14.28587372932924</v>
       </c>
       <c r="F25">
-        <v>38.29490744390146</v>
+        <v>38.29490744390153</v>
       </c>
       <c r="G25">
-        <v>29.3727891064225</v>
+        <v>29.37278910642255</v>
       </c>
       <c r="H25">
-        <v>10.81050992146015</v>
+        <v>10.81050992146014</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>38.79838327492957</v>
+        <v>38.79838327492966</v>
       </c>
       <c r="K25">
-        <v>22.94813875700347</v>
+        <v>22.94813875700352</v>
       </c>
       <c r="L25">
-        <v>20.6024366686772</v>
+        <v>20.60243666867724</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.04315644656516</v>
+        <v>12.04315644656515</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.462113690272703</v>
+        <v>2.462113690272606</v>
       </c>
       <c r="E2">
-        <v>13.46742847062758</v>
+        <v>13.46742847062754</v>
       </c>
       <c r="F2">
-        <v>34.81218193275766</v>
+        <v>34.81218193275762</v>
       </c>
       <c r="G2">
-        <v>26.73673118402219</v>
+        <v>26.73673118402214</v>
       </c>
       <c r="H2">
-        <v>11.74010412441236</v>
+        <v>11.74010412441228</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>35.45224213650939</v>
+        <v>35.45224213650944</v>
       </c>
       <c r="K2">
-        <v>20.86957794235773</v>
+        <v>20.86957794235782</v>
       </c>
       <c r="L2">
-        <v>18.83919901906905</v>
+        <v>18.83919901906908</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.24387270152659</v>
+        <v>11.24387270152661</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.543864483709823</v>
+        <v>2.543864483709827</v>
       </c>
       <c r="E3">
-        <v>12.89547568088508</v>
+        <v>12.89547568088512</v>
       </c>
       <c r="F3">
-        <v>32.55964908711174</v>
+        <v>32.55964908711172</v>
       </c>
       <c r="G3">
-        <v>25.11263249282785</v>
+        <v>25.11263249282783</v>
       </c>
       <c r="H3">
-        <v>12.37943894692001</v>
+        <v>12.37943894692004</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>33.03941320633801</v>
+        <v>33.03941320633809</v>
       </c>
       <c r="K3">
-        <v>19.37547172547868</v>
+        <v>19.37547172547871</v>
       </c>
       <c r="L3">
-        <v>17.56893216025044</v>
+        <v>17.56893216025047</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.72589079801136</v>
+        <v>10.72589079801127</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.601471322042916</v>
+        <v>2.601471322042957</v>
       </c>
       <c r="E4">
-        <v>12.5357303618923</v>
+        <v>12.53573036189236</v>
       </c>
       <c r="F4">
-        <v>31.16188674784375</v>
+        <v>31.16188674784376</v>
       </c>
       <c r="G4">
-        <v>24.11462698954519</v>
+        <v>24.11462698954518</v>
       </c>
       <c r="H4">
         <v>12.77787471089389</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>31.48391191169513</v>
+        <v>31.48391191169518</v>
       </c>
       <c r="K4">
-        <v>18.41400627365442</v>
+        <v>18.41400627365452</v>
       </c>
       <c r="L4">
-        <v>16.75065661474022</v>
+        <v>16.75065661474024</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.50790558107976</v>
+        <v>10.50790558107979</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.626551839127755</v>
+        <v>2.626551839127724</v>
       </c>
       <c r="E5">
-        <v>12.38700854224355</v>
+        <v>12.3870085422436</v>
       </c>
       <c r="F5">
-        <v>30.58880708450081</v>
+        <v>30.58880708450079</v>
       </c>
       <c r="G5">
-        <v>23.7079251362969</v>
+        <v>23.70792513629688</v>
       </c>
       <c r="H5">
-        <v>12.94189070034255</v>
+        <v>12.94189070034249</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>30.83111063044396</v>
+        <v>30.83111063044405</v>
       </c>
       <c r="K5">
-        <v>18.01085838671709</v>
+        <v>18.01085838671713</v>
       </c>
       <c r="L5">
-        <v>16.40741712401905</v>
+        <v>16.40741712401909</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.47129077681516</v>
+        <v>10.47129077681521</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.630806692775379</v>
+        <v>2.630806692775217</v>
       </c>
       <c r="E6">
         <v>12.36218668080365</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>30.72156237530304</v>
+        <v>30.72156237530306</v>
       </c>
       <c r="K6">
-        <v>17.94322372511239</v>
+        <v>17.94322372511238</v>
       </c>
       <c r="L6">
-        <v>16.34982756161716</v>
+        <v>16.34982756161719</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -608,13 +608,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.601803375729688</v>
+        <v>2.601803375729638</v>
       </c>
       <c r="E7">
-        <v>12.53373317913575</v>
+        <v>12.53373317913576</v>
       </c>
       <c r="F7">
-        <v>31.15417166446047</v>
+        <v>31.1541716644605</v>
       </c>
       <c r="G7">
         <v>24.10914173919402</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>31.47518499941752</v>
+        <v>31.47518499941751</v>
       </c>
       <c r="K7">
-        <v>18.40861553488303</v>
+        <v>18.40861553488302</v>
       </c>
       <c r="L7">
-        <v>16.74606736744231</v>
+        <v>16.7460673674423</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,31 +646,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.488592859050994</v>
+        <v>2.488592859051026</v>
       </c>
       <c r="E8">
-        <v>13.27200520624458</v>
+        <v>13.27200520624455</v>
       </c>
       <c r="F8">
-        <v>34.03862966538549</v>
+        <v>34.03862966538544</v>
       </c>
       <c r="G8">
-        <v>26.17698367828835</v>
+        <v>26.17698367828834</v>
       </c>
       <c r="H8">
-        <v>11.95943374953914</v>
+        <v>11.95943374953921</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>34.63546002183919</v>
+        <v>34.63546002183907</v>
       </c>
       <c r="K8">
-        <v>20.36339555453032</v>
+        <v>20.36339555453021</v>
       </c>
       <c r="L8">
-        <v>18.40906914908502</v>
+        <v>18.40906914908492</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.61972824708171</v>
+        <v>13.61972824708172</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.339689021835019</v>
+        <v>2.339689021835109</v>
       </c>
       <c r="E9">
-        <v>14.65226098662631</v>
+        <v>14.65226098662642</v>
       </c>
       <c r="F9">
-        <v>39.90035113998183</v>
+        <v>39.90035113998206</v>
       </c>
       <c r="G9">
-        <v>30.63274626798184</v>
+        <v>30.632746267982</v>
       </c>
       <c r="H9">
-        <v>10.38825407164355</v>
+        <v>10.38825407164363</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>40.26192312748613</v>
+        <v>40.2619231274863</v>
       </c>
       <c r="K9">
-        <v>23.85996850947101</v>
+        <v>23.85996850947111</v>
       </c>
       <c r="L9">
-        <v>21.37409912705654</v>
+        <v>21.37409912705661</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.85155929085019</v>
+        <v>14.85155929085018</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.581846697249786</v>
+        <v>2.581846697249826</v>
       </c>
       <c r="E10">
-        <v>15.62883429369473</v>
+        <v>15.62883429369472</v>
       </c>
       <c r="F10">
-        <v>44.19747973444233</v>
+        <v>44.19747973444215</v>
       </c>
       <c r="G10">
-        <v>34.0049211941318</v>
+        <v>34.00492119413167</v>
       </c>
       <c r="H10">
-        <v>9.243821261861846</v>
+        <v>9.243821261861902</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>44.07475703247722</v>
+        <v>44.07475703247717</v>
       </c>
       <c r="K10">
-        <v>26.24417420614117</v>
+        <v>26.24417420614111</v>
       </c>
       <c r="L10">
-        <v>23.38526143925859</v>
+        <v>23.38526143925855</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.38613441514004</v>
+        <v>15.38613441514006</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.748441921147609</v>
+        <v>2.748441921147597</v>
       </c>
       <c r="E11">
-        <v>16.06672868499786</v>
+        <v>16.06672868499777</v>
       </c>
       <c r="F11">
-        <v>46.13365450446306</v>
+        <v>46.13365450446303</v>
       </c>
       <c r="G11">
-        <v>35.52462704568416</v>
+        <v>35.52462704568413</v>
       </c>
       <c r="H11">
-        <v>8.721976615262239</v>
+        <v>8.721976615262173</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>45.74703965706483</v>
+        <v>45.7470396570648</v>
       </c>
       <c r="K11">
-        <v>27.29414865656887</v>
+        <v>27.29414865656888</v>
       </c>
       <c r="L11">
-        <v>24.26751976401882</v>
+        <v>24.26751976401883</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -798,31 +798,31 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.812172329150153</v>
+        <v>2.812172329150194</v>
       </c>
       <c r="E12">
-        <v>16.23186044240153</v>
+        <v>16.23186044240148</v>
       </c>
       <c r="F12">
-        <v>46.86537012589379</v>
+        <v>46.86537012589385</v>
       </c>
       <c r="G12">
-        <v>36.09904574841123</v>
+        <v>36.09904574841127</v>
       </c>
       <c r="H12">
-        <v>8.523878232019721</v>
+        <v>8.523878232019722</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>46.37209633987921</v>
+        <v>46.37209633987925</v>
       </c>
       <c r="K12">
-        <v>27.6873120816106</v>
+        <v>27.68731208161068</v>
       </c>
       <c r="L12">
-        <v>24.59728337284119</v>
+        <v>24.59728337284124</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.54231196552914</v>
+        <v>15.54231196552916</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.798414736922657</v>
+        <v>2.798414736922719</v>
       </c>
       <c r="E13">
-        <v>16.19632264469413</v>
+        <v>16.19632264469422</v>
       </c>
       <c r="F13">
         <v>46.7078251032211</v>
       </c>
       <c r="G13">
-        <v>35.97536313402603</v>
+        <v>35.97536313402606</v>
       </c>
       <c r="H13">
-        <v>8.566569117845908</v>
+        <v>8.56656911784591</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>46.2378306156735</v>
+        <v>46.23783061567353</v>
       </c>
       <c r="K13">
-        <v>27.6028251682863</v>
+        <v>27.60282516828626</v>
       </c>
       <c r="L13">
         <v>24.52644889982732</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.40256464010271</v>
+        <v>15.4025646401027</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.753670917605524</v>
+        <v>2.753670917605485</v>
       </c>
       <c r="E14">
-        <v>16.08032643822149</v>
+        <v>16.0803264382215</v>
       </c>
       <c r="F14">
-        <v>46.19387471065813</v>
+        <v>46.19387471065817</v>
       </c>
       <c r="G14">
-        <v>35.57189951653735</v>
+        <v>35.57189951653738</v>
       </c>
       <c r="H14">
-        <v>8.705690565819751</v>
+        <v>8.705690565819749</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>45.7986230545925</v>
+        <v>45.79862305459254</v>
       </c>
       <c r="K14">
-        <v>27.32658000311588</v>
+        <v>27.32658000311589</v>
       </c>
       <c r="L14">
         <v>24.29473404975166</v>
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.31650213792227</v>
+        <v>15.31650213792228</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.726354255890906</v>
+        <v>2.7263542558907</v>
       </c>
       <c r="E15">
-        <v>16.00919356264096</v>
+        <v>16.00919356264095</v>
       </c>
       <c r="F15">
-        <v>45.87891445153213</v>
+        <v>45.87891445153212</v>
       </c>
       <c r="G15">
         <v>35.32466188508091</v>
       </c>
       <c r="H15">
-        <v>8.790833417433705</v>
+        <v>8.790833417433634</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>45.52855215513088</v>
+        <v>45.5285521551309</v>
       </c>
       <c r="K15">
-        <v>27.15681129182764</v>
+        <v>27.15681129182761</v>
       </c>
       <c r="L15">
-        <v>24.15225020742913</v>
+        <v>24.15225020742912</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.81611458550191</v>
+        <v>14.81611458550192</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.571038298348495</v>
+        <v>2.571038298348434</v>
       </c>
       <c r="E16">
-        <v>15.60010654606396</v>
+        <v>15.60010654606401</v>
       </c>
       <c r="F16">
-        <v>44.07066797099412</v>
+        <v>44.07066797099409</v>
       </c>
       <c r="G16">
         <v>33.90539681337587</v>
       </c>
       <c r="H16">
-        <v>9.277874304441372</v>
+        <v>9.277874304441401</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>43.96427846107106</v>
+        <v>43.96427846107107</v>
       </c>
       <c r="K16">
-        <v>26.17490339968597</v>
+        <v>26.17490339968593</v>
       </c>
       <c r="L16">
-        <v>23.32697685693499</v>
+        <v>23.32697685693495</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.5026187041463</v>
+        <v>14.50261870414634</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.476690467099969</v>
+        <v>2.476690467099942</v>
       </c>
       <c r="E17">
-        <v>15.34765494360004</v>
+        <v>15.34765494360007</v>
       </c>
       <c r="F17">
-        <v>42.95736725222766</v>
+        <v>42.95736725222764</v>
       </c>
       <c r="G17">
-        <v>33.03169583439664</v>
+        <v>33.03169583439663</v>
       </c>
       <c r="H17">
-        <v>9.576129684656372</v>
+        <v>9.57612968465634</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>42.98920624386978</v>
+        <v>42.98920624386977</v>
       </c>
       <c r="K17">
-        <v>25.56402531535781</v>
+        <v>25.56402531535779</v>
       </c>
       <c r="L17">
         <v>22.81258071420778</v>
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.31986838996517</v>
+        <v>14.31986838996522</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.422708645429804</v>
+        <v>2.422708645429885</v>
       </c>
       <c r="E18">
-        <v>15.20183604904747</v>
+        <v>15.20183604904748</v>
       </c>
       <c r="F18">
-        <v>42.3151860413078</v>
+        <v>42.31518604130778</v>
       </c>
       <c r="G18">
-        <v>32.52774639861413</v>
+        <v>32.52774639861411</v>
       </c>
       <c r="H18">
-        <v>9.747582166582133</v>
+        <v>9.747582166582136</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>42.42246498973312</v>
+        <v>42.42246498973311</v>
       </c>
       <c r="K18">
-        <v>25.20936958397216</v>
+        <v>25.20936958397212</v>
       </c>
       <c r="L18">
-        <v>22.51361729273365</v>
+        <v>22.51361729273367</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.25757049042742</v>
+        <v>14.25757049042747</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.404475057681572</v>
+        <v>2.404475057681474</v>
       </c>
       <c r="E19">
         <v>15.15235290057531</v>
       </c>
       <c r="F19">
-        <v>42.09740647726663</v>
+        <v>42.09740647726662</v>
       </c>
       <c r="G19">
-        <v>32.35684725784323</v>
+        <v>32.35684725784319</v>
       </c>
       <c r="H19">
         <v>9.805625514694242</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>42.22954131127787</v>
+        <v>42.22954131127786</v>
       </c>
       <c r="K19">
-        <v>25.08870837693646</v>
+        <v>25.08870837693642</v>
       </c>
       <c r="L19">
-        <v>22.41185153082199</v>
+        <v>22.41185153082198</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.53624214163036</v>
+        <v>14.53624214163035</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.486703257575638</v>
+        <v>2.486703257575714</v>
       </c>
       <c r="E20">
         <v>15.37459114481056</v>
       </c>
       <c r="F20">
-        <v>43.07606266064049</v>
+        <v>43.07606266064054</v>
       </c>
       <c r="G20">
-        <v>33.12484324345487</v>
+        <v>33.12484324345492</v>
       </c>
       <c r="H20">
         <v>9.544391996488061</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>43.09361057659412</v>
+        <v>43.09361057659418</v>
       </c>
       <c r="K20">
-        <v>25.62939171471759</v>
+        <v>25.62939171471765</v>
       </c>
       <c r="L20">
-        <v>22.86765708841955</v>
+        <v>22.86765708841958</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.4437081114861</v>
+        <v>15.44370811148609</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.766794064331286</v>
+        <v>2.766794064331225</v>
       </c>
       <c r="E21">
-        <v>16.11441388516892</v>
+        <v>16.11441388516901</v>
       </c>
       <c r="F21">
-        <v>46.3448632435056</v>
+        <v>46.3448632435058</v>
       </c>
       <c r="G21">
-        <v>35.69042621867674</v>
+        <v>35.6904262186769</v>
       </c>
       <c r="H21">
-        <v>8.664843034325012</v>
+        <v>8.664843034324909</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>45.92784492142172</v>
+        <v>45.92784492142189</v>
       </c>
       <c r="K21">
-        <v>27.40783563299538</v>
+        <v>27.40783563299547</v>
       </c>
       <c r="L21">
-        <v>24.36290857139779</v>
+        <v>24.36290857139783</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.01595139134194</v>
+        <v>16.01595139134193</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.953724494423215</v>
+        <v>2.953724494423251</v>
       </c>
       <c r="E22">
-        <v>16.59407395793854</v>
+        <v>16.59407395793858</v>
       </c>
       <c r="F22">
-        <v>48.47342233386948</v>
+        <v>48.47342233386956</v>
       </c>
       <c r="G22">
-        <v>37.36164322453032</v>
+        <v>37.36164322453035</v>
       </c>
       <c r="H22">
-        <v>8.087007924278442</v>
+        <v>8.087007924278449</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>47.73283190090672</v>
+        <v>47.7328319009067</v>
       </c>
       <c r="K22">
-        <v>28.54459785919661</v>
+        <v>28.54459785919664</v>
       </c>
       <c r="L22">
-        <v>25.31513064038906</v>
+        <v>25.31513064038907</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.71239612426703</v>
+        <v>15.71239612426704</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.853528127335899</v>
+        <v>2.853528127335903</v>
       </c>
       <c r="E23">
-        <v>16.33832880118986</v>
+        <v>16.33832880118974</v>
       </c>
       <c r="F23">
-        <v>47.33760357710198</v>
+        <v>47.33760357710189</v>
       </c>
       <c r="G23">
-        <v>36.46979590152766</v>
+        <v>36.4697959015276</v>
       </c>
       <c r="H23">
-        <v>8.395792053639994</v>
+        <v>8.395792053640138</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>46.77352611207773</v>
+        <v>46.77352611207765</v>
       </c>
       <c r="K23">
-        <v>27.94002156995614</v>
+        <v>27.9400215699561</v>
       </c>
       <c r="L23">
-        <v>24.8090625120885</v>
+        <v>24.80906251208846</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1254,31 +1254,31 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.482175678769906</v>
+        <v>2.482175678769834</v>
       </c>
       <c r="E24">
-        <v>15.36241542537357</v>
+        <v>15.36241542537361</v>
       </c>
       <c r="F24">
-        <v>43.02240718696436</v>
+        <v>43.02240718696437</v>
       </c>
       <c r="G24">
         <v>33.08273650202642</v>
       </c>
       <c r="H24">
-        <v>9.558740640033689</v>
+        <v>9.558740640033692</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>43.04642861640412</v>
+        <v>43.04642861640411</v>
       </c>
       <c r="K24">
-        <v>25.59985036254862</v>
+        <v>25.59985036254859</v>
       </c>
       <c r="L24">
-        <v>22.8427671475341</v>
+        <v>22.84276714753408</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.14250320010002</v>
+        <v>13.14250320010001</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.369902504110046</v>
+        <v>2.369902504110061</v>
       </c>
       <c r="E25">
-        <v>14.28587372932924</v>
+        <v>14.28587372932921</v>
       </c>
       <c r="F25">
-        <v>38.29490744390153</v>
+        <v>38.29490744390146</v>
       </c>
       <c r="G25">
-        <v>29.37278910642255</v>
+        <v>29.3727891064225</v>
       </c>
       <c r="H25">
-        <v>10.81050992146014</v>
+        <v>10.81050992146015</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>38.79838327492966</v>
+        <v>38.79838327492957</v>
       </c>
       <c r="K25">
-        <v>22.94813875700352</v>
+        <v>22.94813875700347</v>
       </c>
       <c r="L25">
-        <v>20.60243666867724</v>
+        <v>20.6024366686772</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.04315644656515</v>
+        <v>12.04507866248404</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.462113690272606</v>
+        <v>2.458469883314373</v>
       </c>
       <c r="E2">
-        <v>13.46742847062754</v>
+        <v>13.46005650596203</v>
       </c>
       <c r="F2">
-        <v>34.81218193275762</v>
+        <v>34.78445830669013</v>
       </c>
       <c r="G2">
-        <v>26.73673118402214</v>
+        <v>26.60638733859435</v>
       </c>
       <c r="H2">
-        <v>11.74010412441228</v>
+        <v>26.77729250107763</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>11.73907782450651</v>
       </c>
       <c r="J2">
-        <v>35.45224213650944</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>20.86957794235782</v>
+        <v>35.44260854869854</v>
       </c>
       <c r="L2">
-        <v>18.83919901906908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>20.86405225725705</v>
+      </c>
+      <c r="M2">
+        <v>18.83645805445876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.24387270152661</v>
+        <v>11.24570317547486</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.543864483709827</v>
+        <v>2.540702807831414</v>
       </c>
       <c r="E3">
-        <v>12.89547568088512</v>
+        <v>12.88910072396582</v>
       </c>
       <c r="F3">
-        <v>32.55964908711172</v>
+        <v>32.53414109262746</v>
       </c>
       <c r="G3">
-        <v>25.11263249282783</v>
+        <v>24.71975556619718</v>
       </c>
       <c r="H3">
-        <v>12.37943894692004</v>
+        <v>25.15084624426241</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12.37831259632289</v>
       </c>
       <c r="J3">
-        <v>33.03941320633809</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>19.37547172547871</v>
+        <v>33.03081260325209</v>
       </c>
       <c r="L3">
-        <v>17.56893216025047</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>19.37051014249189</v>
+      </c>
+      <c r="M3">
+        <v>17.56653028461849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.72589079801127</v>
+        <v>10.72765838222263</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.601471322042957</v>
+        <v>2.598565621150627</v>
       </c>
       <c r="E4">
-        <v>12.53573036189236</v>
+        <v>12.52999274855573</v>
       </c>
       <c r="F4">
-        <v>31.16188674784376</v>
+        <v>31.13774810789757</v>
       </c>
       <c r="G4">
-        <v>24.11462698954518</v>
+        <v>23.55380445321329</v>
       </c>
       <c r="H4">
-        <v>12.77787471089389</v>
+        <v>24.15139124259619</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.77668305262588</v>
       </c>
       <c r="J4">
-        <v>31.48391191169518</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>18.41400627365452</v>
+        <v>31.47595282186238</v>
       </c>
       <c r="L4">
-        <v>16.75065661474024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>18.40939029240814</v>
+      </c>
+      <c r="M4">
+        <v>16.7484624994935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.50790558107979</v>
+        <v>10.50964595230906</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.626551839127724</v>
+        <v>2.623741605801966</v>
       </c>
       <c r="E5">
-        <v>12.3870085422436</v>
+        <v>12.3815374913727</v>
       </c>
       <c r="F5">
-        <v>30.58880708450079</v>
+        <v>30.56522967984343</v>
       </c>
       <c r="G5">
-        <v>23.70792513629688</v>
+        <v>23.0736873184543</v>
       </c>
       <c r="H5">
-        <v>12.94189070034249</v>
+        <v>23.74409787046658</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.94067164637619</v>
       </c>
       <c r="J5">
-        <v>30.83111063044405</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>18.01085838671713</v>
+        <v>30.82341578265974</v>
       </c>
       <c r="L5">
-        <v>16.40741712401909</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>18.00638356291208</v>
+      </c>
+      <c r="M5">
+        <v>16.40530795267366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.47129077681521</v>
+        <v>10.47302653534018</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.630806692775217</v>
+        <v>2.628011814014308</v>
       </c>
       <c r="E6">
-        <v>12.36218668080365</v>
+        <v>12.35676031861051</v>
       </c>
       <c r="F6">
-        <v>30.49344737445328</v>
+        <v>30.46996337902753</v>
       </c>
       <c r="G6">
-        <v>23.64040042680596</v>
+        <v>22.99366787032938</v>
       </c>
       <c r="H6">
-        <v>12.96922983570326</v>
+        <v>23.67647492636726</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.96800618987968</v>
       </c>
       <c r="J6">
-        <v>30.72156237530306</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>17.94322372511238</v>
+        <v>30.7139116029022</v>
       </c>
       <c r="L6">
-        <v>16.34982756161719</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>17.93877237363175</v>
+      </c>
+      <c r="M6">
+        <v>16.34773252287486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.72297899738284</v>
+        <v>10.72474622092896</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.601803375729638</v>
+        <v>2.598898996509067</v>
       </c>
       <c r="E7">
-        <v>12.53373317913576</v>
+        <v>12.52799913245546</v>
       </c>
       <c r="F7">
-        <v>31.1541716644605</v>
+        <v>31.13004057946499</v>
       </c>
       <c r="G7">
-        <v>24.10914173919402</v>
+        <v>23.5473494155193</v>
       </c>
       <c r="H7">
-        <v>12.78007979023567</v>
+        <v>24.14589801653852</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12.77888776545965</v>
       </c>
       <c r="J7">
-        <v>31.47518499941751</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>18.40861553488302</v>
+        <v>31.46722946055991</v>
       </c>
       <c r="L7">
-        <v>16.7460673674423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>18.40400145540029</v>
+      </c>
+      <c r="M7">
+        <v>16.74387439615238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.77317456494315</v>
+        <v>11.77506655173683</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.488592859051026</v>
+        <v>2.485124321432989</v>
       </c>
       <c r="E8">
-        <v>13.27200520624455</v>
+        <v>13.26497212082379</v>
       </c>
       <c r="F8">
-        <v>34.03862966538544</v>
+        <v>34.01166880572482</v>
       </c>
       <c r="G8">
-        <v>26.17698367828834</v>
+        <v>25.94669753460449</v>
       </c>
       <c r="H8">
-        <v>11.95943374953921</v>
+        <v>26.21673791736691</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>11.9583738953938</v>
       </c>
       <c r="J8">
-        <v>34.63546002183907</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>20.36339555453021</v>
+        <v>34.62618172487213</v>
       </c>
       <c r="L8">
-        <v>18.40906914908492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>20.35806485975048</v>
+      </c>
+      <c r="M8">
+        <v>18.40644544072418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.61972824708172</v>
+        <v>13.62180931208547</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.339689021835109</v>
+        <v>2.334749632117703</v>
       </c>
       <c r="E9">
-        <v>14.65226098662642</v>
+        <v>14.64285184318271</v>
       </c>
       <c r="F9">
-        <v>39.90035113998206</v>
+        <v>39.86692688772147</v>
       </c>
       <c r="G9">
-        <v>30.632746267982</v>
+        <v>30.67908680880783</v>
       </c>
       <c r="H9">
-        <v>10.38825407164363</v>
+        <v>30.49855317510725</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>10.38740882651041</v>
       </c>
       <c r="J9">
-        <v>40.2619231274863</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>23.85996850947111</v>
+        <v>40.25005838862592</v>
       </c>
       <c r="L9">
-        <v>21.37409912705661</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>23.85319911095903</v>
+      </c>
+      <c r="M9">
+        <v>21.37060725459427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.85155929085018</v>
+        <v>14.85373916701915</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.581846697249826</v>
+        <v>2.57411600759306</v>
       </c>
       <c r="E10">
-        <v>15.62883429369472</v>
+        <v>15.61773454603419</v>
       </c>
       <c r="F10">
-        <v>44.19747973444215</v>
+        <v>44.15986840402727</v>
       </c>
       <c r="G10">
-        <v>34.00492119413167</v>
+        <v>34.05577139697859</v>
       </c>
       <c r="H10">
-        <v>9.243821261861902</v>
+        <v>33.76938324758013</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>9.243073479872766</v>
       </c>
       <c r="J10">
-        <v>44.07475703247717</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>26.24417420614111</v>
+        <v>44.06091436341615</v>
       </c>
       <c r="L10">
-        <v>23.38526143925855</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>26.2362803127614</v>
+      </c>
+      <c r="M10">
+        <v>23.38108415836735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.38613441514006</v>
+        <v>15.38834863128649</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.748441921147597</v>
+        <v>2.740354520235684</v>
       </c>
       <c r="E11">
-        <v>16.06672868499777</v>
+        <v>16.05485720906486</v>
       </c>
       <c r="F11">
-        <v>46.13365450446303</v>
+        <v>46.09407479131333</v>
       </c>
       <c r="G11">
-        <v>35.52462704568413</v>
+        <v>35.57745773860933</v>
       </c>
       <c r="H11">
-        <v>8.721976615262173</v>
+        <v>35.24938709453211</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>8.721245769431246</v>
       </c>
       <c r="J11">
-        <v>45.7470396570648</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>27.29414865656888</v>
+        <v>45.73225673729435</v>
       </c>
       <c r="L11">
-        <v>24.26751976401883</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>27.28571451138461</v>
+      </c>
+      <c r="M11">
+        <v>24.26301069422304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.58497937794776</v>
+        <v>15.58720485769402</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.812172329150194</v>
+        <v>2.803947994514416</v>
       </c>
       <c r="E12">
-        <v>16.23186044240148</v>
+        <v>16.21969476175538</v>
       </c>
       <c r="F12">
-        <v>46.86537012589385</v>
+        <v>46.82503157392827</v>
       </c>
       <c r="G12">
-        <v>36.09904574841127</v>
+        <v>36.15261499988237</v>
       </c>
       <c r="H12">
-        <v>8.523878232019722</v>
+        <v>35.80962116234421</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>8.523147744374143</v>
       </c>
       <c r="J12">
-        <v>46.37209633987925</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>27.68731208161068</v>
+        <v>46.35694899172515</v>
       </c>
       <c r="L12">
-        <v>24.59728337284124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>27.67866767588933</v>
+      </c>
+      <c r="M12">
+        <v>24.59264473357762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.54231196552916</v>
+        <v>15.54453510090179</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.798414736922719</v>
+        <v>2.790219988267149</v>
       </c>
       <c r="E13">
-        <v>16.19632264469422</v>
+        <v>16.18422044326267</v>
       </c>
       <c r="F13">
-        <v>46.7078251032211</v>
+        <v>46.66765066048941</v>
       </c>
       <c r="G13">
-        <v>35.97536313402606</v>
+        <v>36.02877385418611</v>
       </c>
       <c r="H13">
-        <v>8.56656911784591</v>
+        <v>35.68895671149722</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>8.565838868475655</v>
       </c>
       <c r="J13">
-        <v>46.23783061567353</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>27.60282516828626</v>
+        <v>46.22276217376668</v>
       </c>
       <c r="L13">
-        <v>24.52644889982732</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>27.59422632754561</v>
+      </c>
+      <c r="M13">
+        <v>24.52183836003024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.4025646401027</v>
+        <v>15.40477981922527</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.753670917605485</v>
+        <v>2.745572292631325</v>
       </c>
       <c r="E14">
-        <v>16.0803264382215</v>
+        <v>16.068430807793</v>
       </c>
       <c r="F14">
-        <v>46.19387471065817</v>
+        <v>46.15423286589883</v>
       </c>
       <c r="G14">
-        <v>35.57189951653738</v>
+        <v>35.62479120797511</v>
       </c>
       <c r="H14">
-        <v>8.705690565819749</v>
+        <v>35.2954759337111</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>8.704959886979616</v>
       </c>
       <c r="J14">
-        <v>45.79862305459254</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>27.32658000311589</v>
+        <v>45.7838103378408</v>
       </c>
       <c r="L14">
-        <v>24.29473404975166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>27.31812868379827</v>
+      </c>
+      <c r="M14">
+        <v>24.29021440590713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.31650213792228</v>
+        <v>15.31871220963598</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.7263542558907</v>
+        <v>2.718314245479281</v>
       </c>
       <c r="E15">
-        <v>16.00919356264095</v>
+        <v>15.99742415304329</v>
       </c>
       <c r="F15">
-        <v>45.87891445153212</v>
+        <v>45.83959693854421</v>
       </c>
       <c r="G15">
-        <v>35.32466188508091</v>
+        <v>35.37723412870336</v>
       </c>
       <c r="H15">
-        <v>8.790833417433634</v>
+        <v>35.0544617760662</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>8.790101605222056</v>
       </c>
       <c r="J15">
-        <v>45.5285521551309</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>27.15681129182761</v>
+        <v>45.51389490011599</v>
       </c>
       <c r="L15">
-        <v>24.15225020742912</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>27.14844954128937</v>
+      </c>
+      <c r="M15">
+        <v>24.14778569266435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.81611458550192</v>
+        <v>14.81829198689492</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.571038298348434</v>
+        <v>2.563330700371901</v>
       </c>
       <c r="E16">
-        <v>15.60010654606401</v>
+        <v>15.58905705195842</v>
       </c>
       <c r="F16">
-        <v>44.07066797099409</v>
+        <v>44.03318365598059</v>
       </c>
       <c r="G16">
-        <v>33.90539681337587</v>
+        <v>33.95611606302491</v>
       </c>
       <c r="H16">
-        <v>9.277874304441401</v>
+        <v>33.67257603421244</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>9.277124707061729</v>
       </c>
       <c r="J16">
-        <v>43.96427846107107</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>26.17490339968593</v>
+        <v>43.95049622031335</v>
       </c>
       <c r="L16">
-        <v>23.32697685693495</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>26.16704411143613</v>
+      </c>
+      <c r="M16">
+        <v>23.32282077261973</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.50261870414634</v>
+        <v>14.50477321013415</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.476690467099942</v>
+        <v>2.46918423637883</v>
       </c>
       <c r="E17">
-        <v>15.34765494360007</v>
+        <v>15.33704539667637</v>
       </c>
       <c r="F17">
-        <v>42.95736725222764</v>
+        <v>42.92098852302818</v>
       </c>
       <c r="G17">
-        <v>33.03169583439663</v>
+        <v>33.08125939511292</v>
       </c>
       <c r="H17">
-        <v>9.57612968465634</v>
+        <v>32.82339221117888</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>9.575360962512301</v>
       </c>
       <c r="J17">
-        <v>42.98920624386977</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>25.56402531535779</v>
+        <v>42.97594879303833</v>
       </c>
       <c r="L17">
-        <v>22.81258071420778</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>25.55646593070547</v>
+      </c>
+      <c r="M17">
+        <v>22.80860804861086</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.31986838996522</v>
+        <v>14.32200874413852</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.422708645429885</v>
+        <v>2.415317492862853</v>
       </c>
       <c r="E18">
-        <v>15.20183604904748</v>
+        <v>15.19147941108734</v>
       </c>
       <c r="F18">
-        <v>42.31518604130778</v>
+        <v>42.27943753904687</v>
       </c>
       <c r="G18">
-        <v>32.52774639861411</v>
+        <v>32.57663864322888</v>
       </c>
       <c r="H18">
-        <v>9.747582166582136</v>
+        <v>32.334150433086</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>9.746800037826656</v>
       </c>
       <c r="J18">
-        <v>42.42246498973311</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>25.20936958397212</v>
+        <v>42.40950575728169</v>
       </c>
       <c r="L18">
-        <v>22.51361729273367</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>25.20198010549296</v>
+      </c>
+      <c r="M18">
+        <v>22.50974831869007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.25757049042747</v>
+        <v>14.25970588987063</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.404475057681474</v>
+        <v>2.397122757796973</v>
       </c>
       <c r="E19">
-        <v>15.15235290057531</v>
+        <v>15.14208191214869</v>
       </c>
       <c r="F19">
-        <v>42.09740647726662</v>
+        <v>42.06187049718668</v>
       </c>
       <c r="G19">
-        <v>32.35684725784319</v>
+        <v>32.40551110527542</v>
       </c>
       <c r="H19">
-        <v>9.805625514694242</v>
+        <v>32.16833743814821</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>9.804838481680536</v>
       </c>
       <c r="J19">
-        <v>42.22954131127786</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>25.08870837693642</v>
+        <v>42.21668249583012</v>
       </c>
       <c r="L19">
-        <v>22.41185153082198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>25.08137602202038</v>
+      </c>
+      <c r="M19">
+        <v>22.40801738285577</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.53624214163035</v>
+        <v>14.53839918798608</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.486703257575714</v>
+        <v>2.47917567196391</v>
       </c>
       <c r="E20">
-        <v>15.37459114481056</v>
+        <v>15.36393478924676</v>
       </c>
       <c r="F20">
-        <v>43.07606266064054</v>
+        <v>43.03956685503992</v>
       </c>
       <c r="G20">
-        <v>33.12484324345492</v>
+        <v>33.17453051938605</v>
       </c>
       <c r="H20">
-        <v>9.544391996488061</v>
+        <v>32.91386754401073</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>9.543625571303636</v>
       </c>
       <c r="J20">
-        <v>43.09361057659418</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>25.62939171471765</v>
+        <v>43.08029765294209</v>
       </c>
       <c r="L20">
-        <v>22.86765708841958</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>25.62180068292775</v>
+      </c>
+      <c r="M20">
+        <v>22.8636650913312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.44370811148609</v>
+        <v>15.44592567678042</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.766794064331225</v>
+        <v>2.758667261943091</v>
       </c>
       <c r="E21">
-        <v>16.11441388516901</v>
+        <v>16.10245764780066</v>
       </c>
       <c r="F21">
-        <v>46.3448632435058</v>
+        <v>46.3050653671415</v>
       </c>
       <c r="G21">
-        <v>35.6904262186769</v>
+        <v>35.7434706824979</v>
       </c>
       <c r="H21">
-        <v>8.664843034324909</v>
+        <v>35.41104789628726</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>8.664112668473386</v>
       </c>
       <c r="J21">
-        <v>45.92784492142189</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>27.40783563299547</v>
+        <v>45.91295734282742</v>
       </c>
       <c r="L21">
-        <v>24.36290857139783</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>27.39934115153823</v>
+      </c>
+      <c r="M21">
+        <v>24.35836234553669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.01595139134193</v>
+        <v>16.01819822055907</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.953724494423251</v>
+        <v>2.945194808310477</v>
       </c>
       <c r="E22">
-        <v>16.59407395793858</v>
+        <v>16.58125566125168</v>
       </c>
       <c r="F22">
-        <v>48.47342233386956</v>
+        <v>48.43138501169459</v>
       </c>
       <c r="G22">
-        <v>37.36164322453035</v>
+        <v>37.41681443895492</v>
       </c>
       <c r="H22">
-        <v>8.087007924278449</v>
+        <v>37.04248504048165</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>8.086263891815314</v>
       </c>
       <c r="J22">
-        <v>47.7328319009067</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>28.54459785919664</v>
+        <v>47.7168646871577</v>
       </c>
       <c r="L22">
-        <v>25.31513064038907</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>28.53547878388363</v>
+      </c>
+      <c r="M22">
+        <v>25.31019859865751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.71239612426704</v>
+        <v>15.7146283632652</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.853528127335903</v>
+        <v>2.8452147645016</v>
       </c>
       <c r="E23">
-        <v>16.33832880118974</v>
+        <v>16.32597237791114</v>
       </c>
       <c r="F23">
-        <v>47.33760357710189</v>
+        <v>47.29677068225033</v>
       </c>
       <c r="G23">
-        <v>36.4697959015276</v>
+        <v>36.52383869491536</v>
       </c>
       <c r="H23">
-        <v>8.395792053640138</v>
+        <v>36.17143958490235</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>8.395059752239135</v>
       </c>
       <c r="J23">
-        <v>46.77352611207765</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>27.9400215699561</v>
+        <v>46.75814076189189</v>
       </c>
       <c r="L23">
-        <v>24.80906251208846</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>27.93123959960438</v>
+      </c>
+      <c r="M23">
+        <v>24.80433896850717</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.52104883548297</v>
+        <v>14.52320473640442</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.482175678769834</v>
+        <v>2.474657749806555</v>
       </c>
       <c r="E24">
-        <v>15.36241542537361</v>
+        <v>15.35178023194947</v>
       </c>
       <c r="F24">
-        <v>43.02240718696437</v>
+        <v>42.98596432807067</v>
       </c>
       <c r="G24">
-        <v>33.08273650202642</v>
+        <v>33.13236786755294</v>
       </c>
       <c r="H24">
-        <v>9.558740640033692</v>
+        <v>32.87296693535592</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>9.557973183761383</v>
       </c>
       <c r="J24">
-        <v>43.04642861640411</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>25.59985036254859</v>
+        <v>43.03314078269853</v>
       </c>
       <c r="L24">
-        <v>22.84276714753408</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>25.59227364614197</v>
+      </c>
+      <c r="M24">
+        <v>22.83878389561326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.14250320010001</v>
+        <v>13.14453962439602</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.369902504110061</v>
+        <v>2.36540549144563</v>
       </c>
       <c r="E25">
-        <v>14.28587372932921</v>
+        <v>14.27709352413278</v>
       </c>
       <c r="F25">
-        <v>38.29490744390146</v>
+        <v>38.26299171611562</v>
       </c>
       <c r="G25">
-        <v>29.3727891064225</v>
+        <v>29.41741252304461</v>
       </c>
       <c r="H25">
-        <v>10.81050992146015</v>
+        <v>29.28211603537588</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>10.8096138953044</v>
       </c>
       <c r="J25">
-        <v>38.79838327492957</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>22.94813875700347</v>
+        <v>38.78722508490619</v>
       </c>
       <c r="L25">
-        <v>20.6024366686772</v>
+        <v>22.94176643575549</v>
+      </c>
+      <c r="M25">
+        <v>20.59918524566148</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.04507866248404</v>
+        <v>7.259578403402182</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.458469883314373</v>
+        <v>4.361422846517973</v>
       </c>
       <c r="E2">
-        <v>13.46005650596203</v>
+        <v>6.216651300218244</v>
       </c>
       <c r="F2">
-        <v>34.78445830669013</v>
+        <v>42.64445026673058</v>
       </c>
       <c r="G2">
-        <v>26.60638733859435</v>
+        <v>2.045990414718172</v>
       </c>
       <c r="H2">
-        <v>26.77729250107763</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>11.73907782450651</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.258353510583112</v>
       </c>
       <c r="K2">
-        <v>35.44260854869854</v>
+        <v>36.08569114361556</v>
       </c>
       <c r="L2">
-        <v>20.86405225725705</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>18.83645805445876</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>24.26393712666458</v>
+      </c>
+      <c r="N2">
+        <v>12.44318591598133</v>
+      </c>
+      <c r="O2">
+        <v>32.61192914493019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.24570317547486</v>
+        <v>6.899922018730818</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.540702807831414</v>
+        <v>4.192944533845988</v>
       </c>
       <c r="E3">
-        <v>12.88910072396582</v>
+        <v>6.252606300422768</v>
       </c>
       <c r="F3">
-        <v>32.53414109262746</v>
+        <v>40.50712906189629</v>
       </c>
       <c r="G3">
-        <v>24.71975556619718</v>
+        <v>2.061359342183821</v>
       </c>
       <c r="H3">
-        <v>25.15084624426241</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.37831259632289</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.336986269850606</v>
       </c>
       <c r="K3">
-        <v>33.03081260325209</v>
+        <v>33.4784064345139</v>
       </c>
       <c r="L3">
-        <v>19.37051014249189</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>17.56653028461849</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>22.54150989410228</v>
+      </c>
+      <c r="N3">
+        <v>12.70712752347036</v>
+      </c>
+      <c r="O3">
+        <v>30.98529811354487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.72765838222263</v>
+        <v>6.672927667791551</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.598565621150627</v>
+        <v>4.089175968819378</v>
       </c>
       <c r="E4">
-        <v>12.52999274855573</v>
+        <v>6.276260957823575</v>
       </c>
       <c r="F4">
-        <v>31.13774810789757</v>
+        <v>39.20782539533124</v>
       </c>
       <c r="G4">
-        <v>23.55380445321329</v>
+        <v>2.070931157426322</v>
       </c>
       <c r="H4">
-        <v>24.15139124259619</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>12.77668305262588</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.386840572695094</v>
       </c>
       <c r="K4">
-        <v>31.47595282186238</v>
+        <v>31.80120145450904</v>
       </c>
       <c r="L4">
-        <v>18.40939029240814</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>16.7484624994935</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>21.60441617472907</v>
+      </c>
+      <c r="N4">
+        <v>12.87179450816991</v>
+      </c>
+      <c r="O4">
+        <v>29.99802965209852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.50964595230906</v>
+        <v>6.578997895893977</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.623741605801966</v>
+        <v>4.046751657022723</v>
       </c>
       <c r="E5">
-        <v>12.3815374913727</v>
+        <v>6.286282850703937</v>
       </c>
       <c r="F5">
-        <v>30.56522967984343</v>
+        <v>38.6817966341759</v>
       </c>
       <c r="G5">
-        <v>23.0736873184543</v>
+        <v>2.074871909220455</v>
       </c>
       <c r="H5">
-        <v>23.74409787046658</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>12.94067164637619</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.407559079007529</v>
       </c>
       <c r="K5">
-        <v>30.82341578265974</v>
+        <v>31.09807550968985</v>
       </c>
       <c r="L5">
-        <v>18.00638356291208</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>16.40530795267366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>21.21545720531245</v>
+      </c>
+      <c r="N5">
+        <v>12.93961998573026</v>
+      </c>
+      <c r="O5">
+        <v>29.59871343169408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.47302653534018</v>
+        <v>6.563318688316339</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.628011814014308</v>
+        <v>4.039697344167516</v>
       </c>
       <c r="E6">
-        <v>12.35676031861051</v>
+        <v>6.287969700586883</v>
       </c>
       <c r="F6">
-        <v>30.46996337902753</v>
+        <v>38.59466595105997</v>
       </c>
       <c r="G6">
-        <v>22.99366787032938</v>
+        <v>2.075528860941563</v>
       </c>
       <c r="H6">
-        <v>23.67647492636726</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>12.96800618987968</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.411023876187207</v>
       </c>
       <c r="K6">
-        <v>30.7139116029022</v>
+        <v>30.98012261741082</v>
       </c>
       <c r="L6">
-        <v>17.93877237363175</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>16.34773252287486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>21.15044791601622</v>
+      </c>
+      <c r="N6">
+        <v>12.95092782819705</v>
+      </c>
+      <c r="O6">
+        <v>29.53259403947982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.72474622092896</v>
+        <v>6.671666501687268</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.598898996509067</v>
+        <v>4.088604445198383</v>
       </c>
       <c r="E7">
-        <v>12.52799913245546</v>
+        <v>6.276394585403275</v>
       </c>
       <c r="F7">
-        <v>31.13004057946499</v>
+        <v>39.20071689482067</v>
       </c>
       <c r="G7">
-        <v>23.5473494155193</v>
+        <v>2.070984133527513</v>
       </c>
       <c r="H7">
-        <v>24.14589801653852</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>12.77888776545965</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.387118351194906</v>
       </c>
       <c r="K7">
-        <v>31.46722946055991</v>
+        <v>31.79179899079008</v>
       </c>
       <c r="L7">
-        <v>18.40400145540029</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>16.74387439615238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>21.59919901606547</v>
+      </c>
+      <c r="N7">
+        <v>12.87270621727619</v>
+      </c>
+      <c r="O7">
+        <v>29.99263194394658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.77506655173683</v>
+        <v>7.136915007851186</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.485124321432989</v>
+        <v>4.3033608261369</v>
       </c>
       <c r="E8">
-        <v>13.26497212082379</v>
+        <v>6.228711556812395</v>
       </c>
       <c r="F8">
-        <v>34.01166880572482</v>
+        <v>41.90485721248729</v>
       </c>
       <c r="G8">
-        <v>25.94669753460449</v>
+        <v>2.051265480584481</v>
       </c>
       <c r="H8">
-        <v>26.21673791736691</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>11.9583738953938</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.285143661994829</v>
       </c>
       <c r="K8">
-        <v>34.62618172487213</v>
+        <v>35.20224647002395</v>
       </c>
       <c r="L8">
-        <v>20.35806485975048</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>18.40644544072418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>23.66976431642679</v>
+      </c>
+      <c r="N8">
+        <v>12.53369461458682</v>
+      </c>
+      <c r="O8">
+        <v>32.04871541303019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.62180931208547</v>
+        <v>7.996046300793427</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.334749632117703</v>
+        <v>4.725156927610033</v>
       </c>
       <c r="E9">
-        <v>14.64285184318271</v>
+        <v>6.148535425680011</v>
       </c>
       <c r="F9">
-        <v>39.86692688772147</v>
+        <v>47.31234626345444</v>
       </c>
       <c r="G9">
-        <v>30.67908680880783</v>
+        <v>2.01335030978724</v>
       </c>
       <c r="H9">
-        <v>30.49855317510725</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>10.38740882651041</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.097340631402804</v>
       </c>
       <c r="K9">
-        <v>40.25005838862592</v>
+        <v>41.30840904767673</v>
       </c>
       <c r="L9">
-        <v>23.85319911095903</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>21.37060725459427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>27.77592768615266</v>
+      </c>
+      <c r="N9">
+        <v>11.88614922545901</v>
+      </c>
+      <c r="O9">
+        <v>36.17369832853788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.85373916701915</v>
+        <v>8.641116764683495</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.57411600759306</v>
+        <v>5.041181196899648</v>
       </c>
       <c r="E10">
-        <v>15.61773454603419</v>
+        <v>6.099209106298374</v>
       </c>
       <c r="F10">
-        <v>44.15986840402727</v>
+        <v>51.36712581918776</v>
       </c>
       <c r="G10">
-        <v>34.05577139697859</v>
+        <v>1.985425496943781</v>
       </c>
       <c r="H10">
-        <v>33.76938324758013</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>9.243073479872766</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.966332799931001</v>
       </c>
       <c r="K10">
-        <v>44.06091436341615</v>
+        <v>45.47906666049575</v>
       </c>
       <c r="L10">
-        <v>26.2362803127614</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>23.38108415836735</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>30.579782980814</v>
+      </c>
+      <c r="N10">
+        <v>11.41540730838153</v>
+      </c>
+      <c r="O10">
+        <v>39.27603363530871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.38834863128649</v>
+        <v>8.955168827436641</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.740354520235684</v>
+        <v>5.18801112919783</v>
       </c>
       <c r="E11">
-        <v>16.05485720906486</v>
+        <v>6.079302358661122</v>
       </c>
       <c r="F11">
-        <v>46.09407479131333</v>
+        <v>53.23889732159478</v>
       </c>
       <c r="G11">
-        <v>35.57745773860933</v>
+        <v>1.972559219707027</v>
       </c>
       <c r="H11">
-        <v>35.24938709453211</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>8.721245769431246</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.908149516534515</v>
       </c>
       <c r="K11">
-        <v>45.73225673729435</v>
+        <v>47.31870306412934</v>
       </c>
       <c r="L11">
-        <v>27.28571451138461</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>24.26301069422304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>31.81632870665971</v>
+      </c>
+      <c r="N11">
+        <v>11.20084978385865</v>
+      </c>
+      <c r="O11">
+        <v>40.82172506560926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.58720485769402</v>
+        <v>9.071776514816191</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.803947994514416</v>
+        <v>5.244242642346742</v>
       </c>
       <c r="E12">
-        <v>16.21969476175538</v>
+        <v>6.07217986228008</v>
       </c>
       <c r="F12">
-        <v>46.82503157392827</v>
+        <v>53.95283232398233</v>
       </c>
       <c r="G12">
-        <v>36.15261499988237</v>
+        <v>1.967648222042894</v>
       </c>
       <c r="H12">
-        <v>35.80962116234421</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>8.523147744374143</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.886312283756061</v>
       </c>
       <c r="K12">
-        <v>46.35694899172515</v>
+        <v>48.00815625120934</v>
       </c>
       <c r="L12">
-        <v>27.67866767588933</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>24.59264473357762</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>32.2797198891903</v>
+      </c>
+      <c r="N12">
+        <v>11.11939138749501</v>
+      </c>
+      <c r="O12">
+        <v>41.43795749496728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.54453510090179</v>
+        <v>9.04676515464031</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.790219988267149</v>
+        <v>5.232100643645799</v>
       </c>
       <c r="E13">
-        <v>16.18422044326267</v>
+        <v>6.073694351348792</v>
       </c>
       <c r="F13">
-        <v>46.66765066048941</v>
+        <v>53.79882122159131</v>
       </c>
       <c r="G13">
-        <v>36.02877385418611</v>
+        <v>1.968707898952738</v>
       </c>
       <c r="H13">
-        <v>35.68895671149722</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>8.565838868475655</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.891006748328196</v>
       </c>
       <c r="K13">
-        <v>46.22276217376668</v>
+        <v>47.85996931101888</v>
       </c>
       <c r="L13">
-        <v>27.59422632754561</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>24.52183836003024</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>32.18012320086521</v>
+      </c>
+      <c r="N13">
+        <v>11.13694695807008</v>
+      </c>
+      <c r="O13">
+        <v>41.30516838241267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.40477981922527</v>
+        <v>8.964808341622001</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.745572292631325</v>
+        <v>5.192623452582745</v>
       </c>
       <c r="E14">
-        <v>16.068430807793</v>
+        <v>6.078707707451433</v>
       </c>
       <c r="F14">
-        <v>46.15423286589883</v>
+        <v>53.29752175184219</v>
       </c>
       <c r="G14">
-        <v>35.62479120797511</v>
+        <v>1.972156066355468</v>
       </c>
       <c r="H14">
-        <v>35.2954759337111</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>8.704959886979616</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.90634907951817</v>
       </c>
       <c r="K14">
-        <v>45.7838103378408</v>
+        <v>47.37556148830157</v>
       </c>
       <c r="L14">
-        <v>27.31812868379827</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>24.29021440590713</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>31.85454486648549</v>
+      </c>
+      <c r="N14">
+        <v>11.19415332659597</v>
+      </c>
+      <c r="O14">
+        <v>40.87239232315414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.31871220963598</v>
+        <v>8.914307264633855</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.718314245479281</v>
+        <v>5.168530991489958</v>
       </c>
       <c r="E15">
-        <v>15.99742415304329</v>
+        <v>6.081834450370049</v>
       </c>
       <c r="F15">
-        <v>45.83959693854421</v>
+        <v>52.99117358703912</v>
       </c>
       <c r="G15">
-        <v>35.37723412870336</v>
+        <v>1.974262603196305</v>
       </c>
       <c r="H15">
-        <v>35.0544617760662</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>8.790101605222056</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.915771935727707</v>
       </c>
       <c r="K15">
-        <v>45.51389490011599</v>
+        <v>47.07794969993442</v>
       </c>
       <c r="L15">
-        <v>27.14844954128937</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>24.14778569266435</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>31.65450996104064</v>
+      </c>
+      <c r="N15">
+        <v>11.22916157068928</v>
+      </c>
+      <c r="O15">
+        <v>40.60749235304153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.81829198689492</v>
+        <v>8.620265643096973</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.563330700371901</v>
+        <v>5.031662413491906</v>
       </c>
       <c r="E16">
-        <v>15.58905705195842</v>
+        <v>6.100565117551385</v>
       </c>
       <c r="F16">
-        <v>44.03318365598059</v>
+        <v>51.24544406313805</v>
       </c>
       <c r="G16">
-        <v>33.95611606302491</v>
+        <v>1.986261812481453</v>
       </c>
       <c r="H16">
-        <v>33.67257603421244</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>9.277124707061729</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.970162989542577</v>
       </c>
       <c r="K16">
-        <v>43.95049622031335</v>
+        <v>45.3577725450247</v>
       </c>
       <c r="L16">
-        <v>26.16704411143613</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>23.32282077261973</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>30.4982480917403</v>
+      </c>
+      <c r="N16">
+        <v>11.42940855470401</v>
+      </c>
+      <c r="O16">
+        <v>39.18283380530331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.50477321013415</v>
+        <v>8.435698549750013</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.46918423637883</v>
+        <v>4.94860489448574</v>
       </c>
       <c r="E17">
-        <v>15.33704539667637</v>
+        <v>6.112736915016103</v>
       </c>
       <c r="F17">
-        <v>42.92098852302818</v>
+        <v>50.18221177978267</v>
       </c>
       <c r="G17">
-        <v>33.08125939511292</v>
+        <v>1.993571164989007</v>
       </c>
       <c r="H17">
-        <v>32.82339221117888</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>9.575360962512301</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.00388655059368</v>
       </c>
       <c r="K17">
-        <v>42.97594879303833</v>
+        <v>44.28846540455728</v>
       </c>
       <c r="L17">
-        <v>25.55646593070547</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>22.80860804861086</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>29.77942708631628</v>
+      </c>
+      <c r="N17">
+        <v>11.55204860566624</v>
+      </c>
+      <c r="O17">
+        <v>38.36872693789772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.32200874413852</v>
+        <v>8.332187943665881</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.415317492862853</v>
+        <v>4.901107651005076</v>
       </c>
       <c r="E18">
-        <v>15.19147941108734</v>
+        <v>6.119972354864771</v>
       </c>
       <c r="F18">
-        <v>42.27943753904687</v>
+        <v>49.57313647703455</v>
       </c>
       <c r="G18">
-        <v>32.57663864322888</v>
+        <v>1.997761035196403</v>
       </c>
       <c r="H18">
-        <v>32.334150433086</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>9.746800037826656</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.023416892354851</v>
       </c>
       <c r="K18">
-        <v>42.40950575728169</v>
+        <v>43.66792755249189</v>
       </c>
       <c r="L18">
-        <v>25.20198010549296</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>22.50974831869007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>29.3622633493217</v>
+      </c>
+      <c r="N18">
+        <v>11.62255931860804</v>
+      </c>
+      <c r="O18">
+        <v>37.90257449740312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.25970588987063</v>
+        <v>8.302089953194294</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.397122757796973</v>
+        <v>4.885068121790366</v>
       </c>
       <c r="E19">
-        <v>15.14208191214869</v>
+        <v>6.122461075014767</v>
       </c>
       <c r="F19">
-        <v>42.06187049718668</v>
+        <v>49.36730729502889</v>
       </c>
       <c r="G19">
-        <v>32.40551110527542</v>
+        <v>1.999177620433023</v>
       </c>
       <c r="H19">
-        <v>32.16833743814821</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>9.804838481680536</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.030052682669901</v>
       </c>
       <c r="K19">
-        <v>42.21668249583012</v>
+        <v>43.45684900654383</v>
       </c>
       <c r="L19">
-        <v>25.08137602202038</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>22.40801738285577</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>29.22036024143441</v>
+      </c>
+      <c r="N19">
+        <v>11.64643227565868</v>
+      </c>
+      <c r="O19">
+        <v>37.74507970685196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.53839918798608</v>
+        <v>8.455506380572881</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.47917567196391</v>
+        <v>4.957416794615837</v>
       </c>
       <c r="E20">
-        <v>15.36393478924676</v>
+        <v>6.11141660099516</v>
       </c>
       <c r="F20">
-        <v>43.03956685503992</v>
+        <v>50.29513173439143</v>
       </c>
       <c r="G20">
-        <v>33.17453051938605</v>
+        <v>1.992794650938998</v>
       </c>
       <c r="H20">
-        <v>32.91386754401073</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>9.543625571303636</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.000282864793195</v>
       </c>
       <c r="K20">
-        <v>43.08029765294209</v>
+        <v>44.40285692897569</v>
       </c>
       <c r="L20">
-        <v>25.62180068292775</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>22.8636650913312</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>29.85632659567636</v>
+      </c>
+      <c r="N20">
+        <v>11.53899732680441</v>
+      </c>
+      <c r="O20">
+        <v>38.45516664962264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.44592567678042</v>
+        <v>8.988943500346128</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.758667261943091</v>
+        <v>5.204200021704021</v>
       </c>
       <c r="E21">
-        <v>16.10245764780066</v>
+        <v>6.077223397093522</v>
       </c>
       <c r="F21">
-        <v>46.3050653671415</v>
+        <v>53.44461433817392</v>
       </c>
       <c r="G21">
-        <v>35.7434706824979</v>
+        <v>1.971144447866442</v>
       </c>
       <c r="H21">
-        <v>35.41104789628726</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>8.664112668473386</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.901837419494878</v>
       </c>
       <c r="K21">
-        <v>45.91295734282742</v>
+        <v>47.51802864966231</v>
       </c>
       <c r="L21">
-        <v>27.39934115153823</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>24.35836234553669</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>31.95030045351426</v>
+      </c>
+      <c r="N21">
+        <v>11.17735747212364</v>
+      </c>
+      <c r="O21">
+        <v>40.99946747435578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.01819822055907</v>
+        <v>9.324097772431937</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.945194808310477</v>
+        <v>5.369284038691711</v>
       </c>
       <c r="E22">
-        <v>16.58125566125168</v>
+        <v>6.057334698403285</v>
       </c>
       <c r="F22">
-        <v>48.43138501169459</v>
+        <v>55.63548354686508</v>
       </c>
       <c r="G22">
-        <v>37.41681443895492</v>
+        <v>1.956758907438126</v>
       </c>
       <c r="H22">
-        <v>37.04248504048165</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>8.086263891815314</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.838633737484567</v>
       </c>
       <c r="K22">
-        <v>47.7168646871577</v>
+        <v>49.51282773388695</v>
       </c>
       <c r="L22">
-        <v>28.53547878388363</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>25.31019859865751</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>33.29095138067516</v>
+      </c>
+      <c r="N22">
+        <v>10.93968840874534</v>
+      </c>
+      <c r="O22">
+        <v>42.79671405095598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.7146283632652</v>
+        <v>9.146434755258465</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.8452147645016</v>
+        <v>5.280753035980241</v>
       </c>
       <c r="E23">
-        <v>16.32597237791114</v>
+        <v>6.067703690752448</v>
       </c>
       <c r="F23">
-        <v>47.29677068225033</v>
+        <v>54.43808290501133</v>
       </c>
       <c r="G23">
-        <v>36.52383869491536</v>
+        <v>1.96446428211736</v>
       </c>
       <c r="H23">
-        <v>36.17143958490235</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>8.395059752239135</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.872265289244289</v>
       </c>
       <c r="K23">
-        <v>46.75814076189189</v>
+        <v>48.45150294985594</v>
       </c>
       <c r="L23">
-        <v>27.93123959960438</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>24.80433896850717</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>32.57768773694333</v>
+      </c>
+      <c r="N23">
+        <v>11.06671482246434</v>
+      </c>
+      <c r="O23">
+        <v>41.83634207938095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.52320473640442</v>
+        <v>8.44655624974032</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.474657749806555</v>
+        <v>4.953432158198753</v>
       </c>
       <c r="E24">
-        <v>15.35178023194947</v>
+        <v>6.112012778247727</v>
       </c>
       <c r="F24">
-        <v>42.98596432807067</v>
+        <v>50.24407388450199</v>
       </c>
       <c r="G24">
-        <v>33.13236786755294</v>
+        <v>1.993145750366456</v>
       </c>
       <c r="H24">
-        <v>32.87296693535592</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>9.557973183761383</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.00191164758808</v>
       </c>
       <c r="K24">
-        <v>43.03314078269853</v>
+        <v>44.35115860152818</v>
       </c>
       <c r="L24">
-        <v>25.59227364614197</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>22.83878389561326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>29.82157254123307</v>
+      </c>
+      <c r="N24">
+        <v>11.54489778866887</v>
+      </c>
+      <c r="O24">
+        <v>38.41608144239962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.14453962439602</v>
+        <v>7.769849291844236</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.36540549144563</v>
+        <v>4.610463546229009</v>
       </c>
       <c r="E25">
-        <v>14.27709352413278</v>
+        <v>6.168668828889439</v>
       </c>
       <c r="F25">
-        <v>38.26299171611562</v>
+        <v>45.83727387826412</v>
       </c>
       <c r="G25">
-        <v>29.41741252304461</v>
+        <v>2.02357604725302</v>
       </c>
       <c r="H25">
-        <v>29.28211603537588</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>10.8096138953044</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.146889331365649</v>
       </c>
       <c r="K25">
-        <v>38.78722508490619</v>
+        <v>39.71513770287165</v>
       </c>
       <c r="L25">
-        <v>22.94176643575549</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>20.59918524566148</v>
+        <v>26.70464348276792</v>
+      </c>
+      <c r="N25">
+        <v>12.0600021358055</v>
+      </c>
+      <c r="O25">
+        <v>35.04694714805177</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.259578403402182</v>
+        <v>16.22181360741542</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.361422846517973</v>
+        <v>3.141446330815621</v>
       </c>
       <c r="E2">
-        <v>6.216651300218244</v>
+        <v>16.54391559930109</v>
       </c>
       <c r="F2">
-        <v>42.64445026673058</v>
+        <v>18.72378756930612</v>
       </c>
       <c r="G2">
-        <v>2.045990414718172</v>
+        <v>25.36011029855666</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.740672721464099</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.258353510583112</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>36.08569114361556</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.835670906948677</v>
       </c>
       <c r="M2">
-        <v>24.26393712666458</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.44318591598133</v>
+        <v>14.65581671936135</v>
       </c>
       <c r="O2">
-        <v>32.61192914493019</v>
+        <v>13.82547068586532</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.899922018730818</v>
+        <v>15.31461067727905</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.192944533845988</v>
+        <v>2.996288479030967</v>
       </c>
       <c r="E3">
-        <v>6.252606300422768</v>
+        <v>16.46959994434605</v>
       </c>
       <c r="F3">
-        <v>40.50712906189629</v>
+        <v>17.68587043967898</v>
       </c>
       <c r="G3">
-        <v>2.061359342183821</v>
+        <v>23.72321889537771</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.544538391753471</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.336986269850606</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>33.4784064345139</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>9.257211288915892</v>
       </c>
       <c r="M3">
-        <v>22.54150989410228</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.70712752347036</v>
+        <v>14.53597927228182</v>
       </c>
       <c r="O3">
-        <v>30.98529811354487</v>
+        <v>13.19491230701942</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.672927667791551</v>
+        <v>14.7340602958377</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.089175968819378</v>
+        <v>2.903108174160763</v>
       </c>
       <c r="E4">
-        <v>6.276260957823575</v>
+        <v>16.42862643397757</v>
       </c>
       <c r="F4">
-        <v>39.20782539533124</v>
+        <v>17.0315977545504</v>
       </c>
       <c r="G4">
-        <v>2.070931157426322</v>
+        <v>22.67950493852853</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.427404981117604</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.386840572695094</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>31.80120145450904</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.882917316237293</v>
       </c>
       <c r="M4">
-        <v>21.60441617472907</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.87179450816991</v>
+        <v>14.46653669151476</v>
       </c>
       <c r="O4">
-        <v>29.99802965209852</v>
+        <v>12.80400619948758</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.578997895893977</v>
+        <v>14.49178263371813</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.046751657022723</v>
+        <v>2.8641436250117</v>
       </c>
       <c r="E5">
-        <v>6.286282850703937</v>
+        <v>16.41314111389547</v>
       </c>
       <c r="F5">
-        <v>38.6817966341759</v>
+        <v>16.76103751452802</v>
       </c>
       <c r="G5">
-        <v>2.074871909220455</v>
+        <v>22.24475885023271</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.380549025752157</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.407559079007529</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>31.09807550968985</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.72562145573726</v>
       </c>
       <c r="M5">
-        <v>21.21545720531245</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.93961998573026</v>
+        <v>14.4392910186795</v>
       </c>
       <c r="O5">
-        <v>29.59871343169408</v>
+        <v>12.64400918661842</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.563318688316339</v>
+        <v>14.45121567791978</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.039697344167516</v>
+        <v>2.85761448779182</v>
       </c>
       <c r="E6">
-        <v>6.287969700586883</v>
+        <v>16.41064412652166</v>
       </c>
       <c r="F6">
-        <v>38.59466595105997</v>
+        <v>16.71588428422706</v>
       </c>
       <c r="G6">
-        <v>2.075528860941563</v>
+        <v>22.17201077679046</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.372822984814031</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.411023876187207</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>30.98012261741082</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.699216040686235</v>
       </c>
       <c r="M6">
-        <v>21.15044791601622</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.95092782819705</v>
+        <v>14.43483080626701</v>
       </c>
       <c r="O6">
-        <v>29.53259403947982</v>
+        <v>12.61740716896263</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.671666501687268</v>
+        <v>14.73081560789712</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.088604445198383</v>
+        <v>2.902586666369431</v>
       </c>
       <c r="E7">
-        <v>6.276394585403275</v>
+        <v>16.42841263486515</v>
       </c>
       <c r="F7">
-        <v>39.20071689482067</v>
+        <v>17.02796434582143</v>
       </c>
       <c r="G7">
-        <v>2.070984133527513</v>
+        <v>22.67367950365206</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.426769451617083</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.387118351194906</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>31.79179899079008</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.880815212997618</v>
       </c>
       <c r="M7">
-        <v>21.59919901606547</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.87270621727619</v>
+        <v>14.46616496926902</v>
       </c>
       <c r="O7">
-        <v>29.99263194394658</v>
+        <v>12.80185091628316</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.136915007851186</v>
+        <v>15.91400860608379</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.3033608261369</v>
+        <v>3.092251429635871</v>
       </c>
       <c r="E8">
-        <v>6.228711556812395</v>
+        <v>16.51735016017104</v>
       </c>
       <c r="F8">
-        <v>41.90485721248729</v>
+        <v>18.36961973724971</v>
       </c>
       <c r="G8">
-        <v>2.051265480584481</v>
+        <v>24.80388498024936</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.672391358662257</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.285143661994829</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>35.20224647002395</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9.640205246571815</v>
       </c>
       <c r="M8">
-        <v>23.66976431642679</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.53369461458682</v>
+        <v>14.61364562036286</v>
       </c>
       <c r="O8">
-        <v>32.04871541303019</v>
+        <v>13.60896588153267</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.996046300793427</v>
+        <v>18.04023500194783</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.725156927610033</v>
+        <v>3.431093766901229</v>
       </c>
       <c r="E9">
-        <v>6.148535425680011</v>
+        <v>16.726811034465</v>
       </c>
       <c r="F9">
-        <v>47.31234626345444</v>
+        <v>20.85430008120164</v>
       </c>
       <c r="G9">
-        <v>2.01335030978724</v>
+        <v>28.75928914993911</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.178054335511842</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.097340631402804</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>41.30840904767673</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.97660326248389</v>
       </c>
       <c r="M9">
-        <v>27.77592768615266</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.88614922545901</v>
+        <v>14.9350996616863</v>
       </c>
       <c r="O9">
-        <v>36.17369832853788</v>
+        <v>15.15301017057056</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.641116764683495</v>
+        <v>19.47678117724194</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.041181196899648</v>
+        <v>3.658890510027477</v>
       </c>
       <c r="E10">
-        <v>6.099209106298374</v>
+        <v>16.89939999697537</v>
       </c>
       <c r="F10">
-        <v>51.36712581918776</v>
+        <v>22.64897254322393</v>
       </c>
       <c r="G10">
-        <v>1.985425496943781</v>
+        <v>31.48308987385582</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.561447550142997</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.966332799931001</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>45.47906666049575</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.86463439455353</v>
       </c>
       <c r="M10">
-        <v>30.579782980814</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.41540730838153</v>
+        <v>15.1900801356155</v>
       </c>
       <c r="O10">
-        <v>39.27603363530871</v>
+        <v>16.25394120809357</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.955168827436641</v>
+        <v>20.10207988756778</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.18801112919783</v>
+        <v>3.75778673529775</v>
       </c>
       <c r="E11">
-        <v>6.079302358661122</v>
+        <v>16.98137584986083</v>
       </c>
       <c r="F11">
-        <v>53.23889732159478</v>
+        <v>23.49654806532573</v>
       </c>
       <c r="G11">
-        <v>1.972559219707027</v>
+        <v>32.67325085386683</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.737918373489283</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.908149516534515</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>47.31870306412934</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.24827291259659</v>
       </c>
       <c r="M11">
-        <v>31.81632870665971</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.20084978385865</v>
+        <v>15.30996410942695</v>
       </c>
       <c r="O11">
-        <v>40.82172506560926</v>
+        <v>16.8553968916798</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.071776514816191</v>
+        <v>20.33476037491329</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.244242642346742</v>
+        <v>3.794547555003617</v>
       </c>
       <c r="E12">
-        <v>6.07217986228008</v>
+        <v>17.01286460099148</v>
       </c>
       <c r="F12">
-        <v>53.95283232398233</v>
+        <v>23.81235822158745</v>
       </c>
       <c r="G12">
-        <v>1.967648222042894</v>
+        <v>33.11697247301596</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.805001551342233</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.886312283756061</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>48.00815625120934</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.39063248173018</v>
       </c>
       <c r="M12">
-        <v>32.2797198891903</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.11939138749501</v>
+        <v>15.35590300044849</v>
       </c>
       <c r="O12">
-        <v>41.43795749496728</v>
+        <v>17.08741954967858</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.04676515464031</v>
+        <v>20.28483174080221</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.232100643645799</v>
+        <v>3.786661218038406</v>
       </c>
       <c r="E13">
-        <v>6.073694351348792</v>
+        <v>17.0060639213385</v>
       </c>
       <c r="F13">
-        <v>53.79882122159131</v>
+        <v>23.74457094725596</v>
       </c>
       <c r="G13">
-        <v>1.968707898952738</v>
+        <v>33.02171755921628</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.790543103802158</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.891006748328196</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>47.85996931101888</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.36010231380819</v>
       </c>
       <c r="M13">
-        <v>32.18012320086521</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.13694695807008</v>
+        <v>15.34598545046037</v>
       </c>
       <c r="O13">
-        <v>41.30516838241267</v>
+        <v>17.03761981569604</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.964808341622001</v>
+        <v>20.12130518497208</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.192623452582745</v>
+        <v>3.760824922464908</v>
       </c>
       <c r="E14">
-        <v>6.078707707451433</v>
+        <v>16.98395780435778</v>
       </c>
       <c r="F14">
-        <v>53.29752175184219</v>
+        <v>23.52263282547005</v>
       </c>
       <c r="G14">
-        <v>1.972156066355468</v>
+        <v>32.70989523549791</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.743432391873025</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.90634907951817</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>47.37556148830157</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.26004329862345</v>
       </c>
       <c r="M14">
-        <v>31.85454486648549</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.19415332659597</v>
+        <v>15.31373278373041</v>
       </c>
       <c r="O14">
-        <v>40.87239232315414</v>
+        <v>16.87456246227095</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.914307264633855</v>
+        <v>20.0206044258151</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.168530991489958</v>
+        <v>3.7449094865055</v>
       </c>
       <c r="E15">
-        <v>6.081834450370049</v>
+        <v>16.97047373402209</v>
       </c>
       <c r="F15">
-        <v>52.99117358703912</v>
+        <v>23.38602044423607</v>
       </c>
       <c r="G15">
-        <v>1.974262603196305</v>
+        <v>32.51799027547775</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.714608181608051</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.915771935727707</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>47.07794969993442</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.19837482951922</v>
       </c>
       <c r="M15">
-        <v>31.65450996104064</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.22916157068928</v>
+        <v>15.29404705954822</v>
       </c>
       <c r="O15">
-        <v>40.60749235304153</v>
+        <v>16.77418475155754</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.620265643096973</v>
+        <v>19.43534418686695</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.031662413491906</v>
+        <v>3.652331422100286</v>
       </c>
       <c r="E16">
-        <v>6.100565117551385</v>
+        <v>16.89410797613046</v>
       </c>
       <c r="F16">
-        <v>51.24544406313805</v>
+        <v>22.59285830410528</v>
       </c>
       <c r="G16">
-        <v>1.986261812481453</v>
+        <v>31.40433090627554</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.549952818391834</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.970162989542577</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>45.3577725450247</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.83915412243103</v>
       </c>
       <c r="M16">
-        <v>30.4982480917403</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.42940855470401</v>
+        <v>15.18232220050799</v>
       </c>
       <c r="O16">
-        <v>39.18283380530331</v>
+        <v>16.22159835123669</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.435698549750013</v>
+        <v>19.06904138697778</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.94860489448574</v>
+        <v>3.594319321576054</v>
       </c>
       <c r="E17">
-        <v>6.112736915016103</v>
+        <v>16.84811069805718</v>
       </c>
       <c r="F17">
-        <v>50.18221177978267</v>
+        <v>22.09705759049744</v>
       </c>
       <c r="G17">
-        <v>1.993571164989007</v>
+        <v>30.70864818974511</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.449441064569735</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.00388655059368</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>44.28846540455728</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.6135801682788</v>
       </c>
       <c r="M17">
-        <v>29.77942708631628</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.55204860566624</v>
+        <v>15.11476657809597</v>
       </c>
       <c r="O17">
-        <v>38.36872693789772</v>
+        <v>15.93716280559937</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.332187943665881</v>
+        <v>18.85570178624617</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.901107651005076</v>
+        <v>3.560507494590902</v>
       </c>
       <c r="E18">
-        <v>6.119972354864771</v>
+        <v>16.82198351833944</v>
       </c>
       <c r="F18">
-        <v>49.57313647703455</v>
+        <v>21.82914243284811</v>
       </c>
       <c r="G18">
-        <v>1.997761035196403</v>
+        <v>30.30390035125426</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.391825621570606</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.023416892354851</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>43.66792755249189</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.4819214870439</v>
       </c>
       <c r="M18">
-        <v>29.3622633493217</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.62255931860804</v>
+        <v>15.07627782820655</v>
       </c>
       <c r="O18">
-        <v>37.90257449740312</v>
+        <v>15.77274439095202</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.302089953194294</v>
+        <v>18.78301511377677</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.885068121790366</v>
+        <v>3.548983305233152</v>
       </c>
       <c r="E19">
-        <v>6.122461075014767</v>
+        <v>16.81319541808087</v>
       </c>
       <c r="F19">
-        <v>49.36730729502889</v>
+        <v>21.74179262876677</v>
       </c>
       <c r="G19">
-        <v>1.999177620433023</v>
+        <v>30.16606643830333</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.372353007907179</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.030052682669901</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>43.45684900654383</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.4370151596432</v>
       </c>
       <c r="M19">
-        <v>29.22036024143441</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.64643227565868</v>
+        <v>15.06330986161895</v>
       </c>
       <c r="O19">
-        <v>37.74507970685196</v>
+        <v>15.71693771541137</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.455506380572881</v>
+        <v>19.10830985010905</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.957416794615837</v>
+        <v>3.60054091570828</v>
       </c>
       <c r="E20">
-        <v>6.11141660099516</v>
+        <v>16.85297348515335</v>
       </c>
       <c r="F20">
-        <v>50.29513173439143</v>
+        <v>22.15018822010651</v>
       </c>
       <c r="G20">
-        <v>1.992794650938998</v>
+        <v>30.7831814804714</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.460120700624172</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.000282864793195</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>44.40285692897569</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.63779100731823</v>
       </c>
       <c r="M20">
-        <v>29.85632659567636</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.53899732680441</v>
+        <v>15.12192009041712</v>
       </c>
       <c r="O20">
-        <v>38.45516664962264</v>
+        <v>15.96752691323663</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.988943500346128</v>
+        <v>20.16944867188649</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.204200021704021</v>
+        <v>3.768432428928883</v>
       </c>
       <c r="E21">
-        <v>6.077223397093522</v>
+        <v>16.99043921242745</v>
       </c>
       <c r="F21">
-        <v>53.44461433817392</v>
+        <v>23.58796072199288</v>
       </c>
       <c r="G21">
-        <v>1.971144447866442</v>
+        <v>32.80167340834605</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.75726324755057</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.901837419494878</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>47.51802864966231</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.28951210935342</v>
       </c>
       <c r="M21">
-        <v>31.95030045351426</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.17735747212364</v>
+        <v>15.323191625825</v>
       </c>
       <c r="O21">
-        <v>40.99946747435578</v>
+        <v>16.92256051812981</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.324097772431937</v>
+        <v>20.83901670534553</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.369284038691711</v>
+        <v>3.87414040126901</v>
       </c>
       <c r="E22">
-        <v>6.057334698403285</v>
+        <v>17.08285765957436</v>
       </c>
       <c r="F22">
-        <v>55.63548354686508</v>
+        <v>24.49765274657189</v>
       </c>
       <c r="G22">
-        <v>1.956758907438126</v>
+        <v>34.08031878395268</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.952949722197614</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.838633737484567</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>49.51282773388695</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.69845996367855</v>
       </c>
       <c r="M22">
-        <v>33.29095138067516</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>10.93968840874534</v>
+        <v>15.45788154322637</v>
       </c>
       <c r="O22">
-        <v>42.79671405095598</v>
+        <v>17.59079105012448</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.146434755258465</v>
+        <v>20.48385932182395</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.280753035980241</v>
+        <v>3.8180921714644</v>
       </c>
       <c r="E23">
-        <v>6.067703690752448</v>
+        <v>17.03331376724069</v>
       </c>
       <c r="F23">
-        <v>54.43808290501133</v>
+        <v>24.01485686069665</v>
       </c>
       <c r="G23">
-        <v>1.96446428211736</v>
+        <v>33.40156331296685</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.848383693604037</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.872265289244289</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>48.45150294985594</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.48174747180988</v>
       </c>
       <c r="M23">
-        <v>32.57768773694333</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.06671482246434</v>
+        <v>15.38571308374819</v>
       </c>
       <c r="O23">
-        <v>41.83634207938095</v>
+        <v>17.23617574985241</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.44655624974032</v>
+        <v>19.09056513079285</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.953432158198753</v>
+        <v>3.597729564779301</v>
       </c>
       <c r="E24">
-        <v>6.112012778247727</v>
+        <v>16.8507740269647</v>
       </c>
       <c r="F24">
-        <v>50.24407388450199</v>
+        <v>22.1261788622869</v>
       </c>
       <c r="G24">
-        <v>1.993145750366456</v>
+        <v>30.74949990603759</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.455291904288471</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.00191164758808</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>44.35115860152818</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.6268514336135</v>
       </c>
       <c r="M24">
-        <v>29.82157254123307</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.54489778866887</v>
+        <v>15.11868489632421</v>
       </c>
       <c r="O24">
-        <v>38.41608144239962</v>
+        <v>15.95380207338381</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.769849291844236</v>
+        <v>17.48668155293533</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.610463546229009</v>
+        <v>3.343084567020223</v>
       </c>
       <c r="E25">
-        <v>6.168668828889439</v>
+        <v>16.66666343218467</v>
       </c>
       <c r="F25">
-        <v>45.83727387826412</v>
+        <v>20.19917296214683</v>
       </c>
       <c r="G25">
-        <v>2.02357604725302</v>
+        <v>27.71258382068591</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.038981612688378</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.146889331365649</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>39.71513770287165</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.63153176697257</v>
       </c>
       <c r="M25">
-        <v>26.70464348276792</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>12.0600021358055</v>
+        <v>14.84476961477869</v>
       </c>
       <c r="O25">
-        <v>35.04694714805177</v>
+        <v>14.74058385648843</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.22181360741542</v>
+        <v>16.23878994128646</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.141446330815621</v>
+        <v>2.99935422207211</v>
       </c>
       <c r="E2">
-        <v>16.54391559930109</v>
+        <v>21.56443023777952</v>
       </c>
       <c r="F2">
-        <v>18.72378756930612</v>
+        <v>18.19196770799345</v>
       </c>
       <c r="G2">
-        <v>25.36011029855666</v>
+        <v>19.46581094307508</v>
       </c>
       <c r="H2">
-        <v>7.740672721464099</v>
+        <v>11.18709037342399</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.835670906948677</v>
+        <v>8.479934202105618</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.65581671936135</v>
+        <v>18.36521348911732</v>
       </c>
       <c r="O2">
-        <v>13.82547068586532</v>
+        <v>15.84820985431647</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.31461067727905</v>
+        <v>16.01044332756856</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.996288479030967</v>
+        <v>2.954533584693999</v>
       </c>
       <c r="E3">
-        <v>16.46959994434605</v>
+        <v>21.58934862633505</v>
       </c>
       <c r="F3">
-        <v>17.68587043967898</v>
+        <v>17.98723077660098</v>
       </c>
       <c r="G3">
-        <v>23.72321889537771</v>
+        <v>18.98239725730938</v>
       </c>
       <c r="H3">
-        <v>7.544538391753471</v>
+        <v>11.18875262248342</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.257211288915892</v>
+        <v>8.317447209622369</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.53597927228182</v>
+        <v>18.35927307079072</v>
       </c>
       <c r="O3">
-        <v>13.19491230701942</v>
+        <v>15.76984899705695</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.7340602958377</v>
+        <v>15.8712669572278</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.903108174160763</v>
+        <v>2.93556071399322</v>
       </c>
       <c r="E4">
-        <v>16.42862643397757</v>
+        <v>21.60792589587436</v>
       </c>
       <c r="F4">
-        <v>17.0315977545504</v>
+        <v>17.86642068448433</v>
       </c>
       <c r="G4">
-        <v>22.67950493852853</v>
+        <v>18.68709121071567</v>
       </c>
       <c r="H4">
-        <v>7.427404981117604</v>
+        <v>11.19219014927639</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.882917316237293</v>
+        <v>8.216904228700527</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.46653669151476</v>
+        <v>18.35803865638474</v>
       </c>
       <c r="O4">
-        <v>12.80400619948758</v>
+        <v>15.72624861026139</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.49178263371813</v>
+        <v>15.81487664396024</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.8641436250117</v>
+        <v>2.927910546689169</v>
       </c>
       <c r="E5">
-        <v>16.41314111389547</v>
+        <v>21.61632420022625</v>
       </c>
       <c r="F5">
-        <v>16.76103751452802</v>
+        <v>17.81848330814386</v>
       </c>
       <c r="G5">
-        <v>22.24475885023271</v>
+        <v>18.56735113869991</v>
       </c>
       <c r="H5">
-        <v>7.380549025752157</v>
+        <v>11.19419908588276</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.72562145573726</v>
+        <v>8.175787946256657</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.4392910186795</v>
+        <v>18.35814569460835</v>
       </c>
       <c r="O5">
-        <v>12.64400918661842</v>
+        <v>15.7096315651265</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.45121567791978</v>
+        <v>15.8055346509957</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.85761448779182</v>
+        <v>2.926645388520115</v>
       </c>
       <c r="E6">
-        <v>16.41064412652166</v>
+        <v>21.61776884521066</v>
       </c>
       <c r="F6">
-        <v>16.71588428422706</v>
+        <v>17.81060322669881</v>
       </c>
       <c r="G6">
-        <v>22.17201077679046</v>
+        <v>18.54751111514608</v>
       </c>
       <c r="H6">
-        <v>7.372822984814031</v>
+        <v>11.19456940175338</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.699216040686235</v>
+        <v>8.168953419035232</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.43483080626701</v>
+        <v>18.35820040771949</v>
       </c>
       <c r="O6">
-        <v>12.61740716896263</v>
+        <v>15.70694221959301</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.73081560789712</v>
+        <v>15.87050505357</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.902586666369431</v>
+        <v>2.935457201112191</v>
       </c>
       <c r="E7">
-        <v>16.42841263486515</v>
+        <v>21.60803580119202</v>
       </c>
       <c r="F7">
-        <v>17.02796434582143</v>
+        <v>17.86576886667629</v>
       </c>
       <c r="G7">
-        <v>22.67367950365206</v>
+        <v>18.68547363293857</v>
       </c>
       <c r="H7">
-        <v>7.426769451617083</v>
+        <v>11.19221478001174</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.880815212997618</v>
+        <v>8.216350235951948</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.46616496926902</v>
+        <v>18.35803762556621</v>
       </c>
       <c r="O7">
-        <v>12.80185091628316</v>
+        <v>15.72601982968991</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.91400860608379</v>
+        <v>16.15988220435825</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.092251429635871</v>
+        <v>2.980964191220068</v>
       </c>
       <c r="E8">
-        <v>16.51735016017104</v>
+        <v>21.57234423141502</v>
       </c>
       <c r="F8">
-        <v>18.36961973724971</v>
+        <v>18.12039553093512</v>
       </c>
       <c r="G8">
-        <v>24.80388498024936</v>
+        <v>19.29894588567738</v>
       </c>
       <c r="H8">
-        <v>7.672391358662257</v>
+        <v>11.18716219812285</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.640205246571815</v>
+        <v>8.424099612601481</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.61364562036286</v>
+        <v>18.36266643942652</v>
       </c>
       <c r="O8">
-        <v>13.60896588153267</v>
+        <v>15.82026412085769</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.04023500194783</v>
+        <v>16.73260862630778</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.431093766901229</v>
+        <v>3.109800199599588</v>
       </c>
       <c r="E9">
-        <v>16.726811034465</v>
+        <v>21.52818387215578</v>
       </c>
       <c r="F9">
-        <v>20.85430008120164</v>
+        <v>18.65574193768736</v>
       </c>
       <c r="G9">
-        <v>28.75928914993911</v>
+        <v>20.50466100833032</v>
       </c>
       <c r="H9">
-        <v>8.178054335511842</v>
+        <v>11.19640309373429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.97660326248389</v>
+        <v>8.823191976602111</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.9350996616863</v>
+        <v>18.39073899288409</v>
       </c>
       <c r="O9">
-        <v>15.15301017057056</v>
+        <v>16.04012122102209</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.47678117724194</v>
+        <v>17.15274225677634</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.658890510027477</v>
+        <v>3.199047305325468</v>
       </c>
       <c r="E10">
-        <v>16.89939999697537</v>
+        <v>21.51124607917591</v>
       </c>
       <c r="F10">
-        <v>22.64897254322393</v>
+        <v>19.06706029028471</v>
       </c>
       <c r="G10">
-        <v>31.48308987385582</v>
+        <v>21.38032324036154</v>
       </c>
       <c r="H10">
-        <v>8.561447550142997</v>
+        <v>11.21481089851096</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.86463439455353</v>
+        <v>9.108591868378269</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.1900801356155</v>
+        <v>18.42273287580949</v>
       </c>
       <c r="O10">
-        <v>16.25394120809357</v>
+        <v>16.22186710312983</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.10207988756778</v>
+        <v>17.34293633600128</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.75778673529775</v>
+        <v>3.238381378616649</v>
       </c>
       <c r="E11">
-        <v>16.98137584986083</v>
+        <v>21.50685352695269</v>
       </c>
       <c r="F11">
-        <v>23.49654806532573</v>
+        <v>19.25722048263967</v>
       </c>
       <c r="G11">
-        <v>32.67325085386683</v>
+        <v>21.7741915611853</v>
       </c>
       <c r="H11">
-        <v>8.737918373489283</v>
+        <v>11.22568948887934</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.24827291259659</v>
+        <v>9.236191297578946</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.30996410942695</v>
+        <v>18.43970749995704</v>
       </c>
       <c r="O11">
-        <v>16.8553968916798</v>
+        <v>16.30866086781238</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.33476037491329</v>
+        <v>17.41476050537089</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.794547555003617</v>
+        <v>3.253087158623459</v>
       </c>
       <c r="E12">
-        <v>17.01286460099148</v>
+        <v>21.5056617095149</v>
       </c>
       <c r="F12">
-        <v>23.81235822158745</v>
+        <v>19.32959466501976</v>
       </c>
       <c r="G12">
-        <v>33.11697247301596</v>
+        <v>21.92252254875454</v>
       </c>
       <c r="H12">
-        <v>8.805001551342233</v>
+        <v>11.23016696965934</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.39063248173018</v>
+        <v>9.28414733489292</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.35590300044849</v>
+        <v>18.44647890846276</v>
       </c>
       <c r="O12">
-        <v>17.08741954967858</v>
+        <v>16.34209402797982</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.28483174080221</v>
+        <v>17.39930171096861</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.786661218038406</v>
+        <v>3.24992853062147</v>
       </c>
       <c r="E13">
-        <v>17.0060639213385</v>
+        <v>21.50589749454998</v>
       </c>
       <c r="F13">
-        <v>23.74457094725596</v>
+        <v>19.31399254326664</v>
       </c>
       <c r="G13">
-        <v>33.02171755921628</v>
+        <v>21.89061586075724</v>
       </c>
       <c r="H13">
-        <v>8.790543103802158</v>
+        <v>11.22918678061873</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.36010231380819</v>
+        <v>9.273835940487533</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.34598545046037</v>
+        <v>18.44500536268584</v>
       </c>
       <c r="O13">
-        <v>17.03761981569604</v>
+        <v>16.33486883675449</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.12130518497208</v>
+        <v>17.34884969003271</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.760824922464908</v>
+        <v>3.23959506350119</v>
       </c>
       <c r="E14">
-        <v>16.98395780435778</v>
+        <v>21.50674605292663</v>
       </c>
       <c r="F14">
-        <v>23.52263282547005</v>
+        <v>19.26316786361371</v>
       </c>
       <c r="G14">
-        <v>32.70989523549791</v>
+        <v>21.78641219803724</v>
       </c>
       <c r="H14">
-        <v>8.743432391873025</v>
+        <v>11.22605069291872</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.26004329862345</v>
+        <v>9.24014418024082</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.31373278373041</v>
+        <v>18.44025773070223</v>
       </c>
       <c r="O14">
-        <v>16.87456246227095</v>
+        <v>16.31140023710947</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.0206044258151</v>
+        <v>17.31791866889306</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.7449094865055</v>
+        <v>3.233240671471887</v>
       </c>
       <c r="E15">
-        <v>16.97047373402209</v>
+        <v>21.50732708381517</v>
       </c>
       <c r="F15">
-        <v>23.38602044423607</v>
+        <v>19.23208158256845</v>
       </c>
       <c r="G15">
-        <v>32.51799027547775</v>
+        <v>21.72247289848703</v>
       </c>
       <c r="H15">
-        <v>8.714608181608051</v>
+        <v>11.224176299348</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.19837482951922</v>
+        <v>9.219458504408802</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.29404705954822</v>
+        <v>18.43739426213543</v>
       </c>
       <c r="O15">
-        <v>16.77418475155754</v>
+        <v>16.29709800055932</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.43534418686695</v>
+        <v>17.14028837792301</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.652331422100286</v>
+        <v>3.196450644256937</v>
       </c>
       <c r="E16">
-        <v>16.89410797613046</v>
+        <v>21.51159939349722</v>
       </c>
       <c r="F16">
-        <v>22.59285830410528</v>
+        <v>19.05468791488822</v>
       </c>
       <c r="G16">
-        <v>31.40433090627554</v>
+        <v>21.35447772308844</v>
       </c>
       <c r="H16">
-        <v>8.549952818391834</v>
+        <v>11.21415018022683</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.83915412243103</v>
+        <v>9.100204384384138</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.18232220050799</v>
+        <v>18.42167186358144</v>
       </c>
       <c r="O16">
-        <v>16.22159835123669</v>
+        <v>16.21627559233516</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.06904138697778</v>
+        <v>17.03103370870868</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.594319321576054</v>
+        <v>3.173551847700016</v>
       </c>
       <c r="E17">
-        <v>16.84811069805718</v>
+        <v>21.51506537810313</v>
       </c>
       <c r="F17">
-        <v>22.09705759049744</v>
+        <v>18.94659103119165</v>
       </c>
       <c r="G17">
-        <v>30.70864818974511</v>
+        <v>21.12744989657562</v>
       </c>
       <c r="H17">
-        <v>8.449441064569735</v>
+        <v>11.20863956582097</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.6135801682788</v>
+        <v>9.026443634731958</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.11476657809597</v>
+        <v>18.41264342665955</v>
       </c>
       <c r="O17">
-        <v>15.93716280559937</v>
+        <v>16.16773011844293</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.85570178624617</v>
+        <v>16.968109834918</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.560507494590902</v>
+        <v>3.160262414274136</v>
       </c>
       <c r="E18">
-        <v>16.82198351833944</v>
+        <v>21.51737100900228</v>
       </c>
       <c r="F18">
-        <v>21.82914243284811</v>
+        <v>18.88470800343912</v>
       </c>
       <c r="G18">
-        <v>30.30390035125426</v>
+        <v>20.99645794570753</v>
       </c>
       <c r="H18">
-        <v>8.391825621570606</v>
+        <v>11.2057059211982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.4819214870439</v>
+        <v>8.983810840375444</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.07627782820655</v>
+        <v>18.40767861845782</v>
       </c>
       <c r="O18">
-        <v>15.77274439095202</v>
+        <v>16.14019714539617</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.78301511377677</v>
+        <v>16.94679256790281</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.548983305233152</v>
+        <v>3.155742691992633</v>
       </c>
       <c r="E19">
-        <v>16.81319541808087</v>
+        <v>21.5182054008459</v>
       </c>
       <c r="F19">
-        <v>21.74179262876677</v>
+        <v>18.86380778443303</v>
       </c>
       <c r="G19">
-        <v>30.16606643830333</v>
+        <v>20.9520411817145</v>
       </c>
       <c r="H19">
-        <v>8.372353007907179</v>
+        <v>11.20475321939671</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.4370151596432</v>
+        <v>8.96934179220667</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.06330986161895</v>
+        <v>18.40603693383204</v>
       </c>
       <c r="O19">
-        <v>15.71693771541137</v>
+        <v>16.13094254611557</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.10830985010905</v>
+        <v>17.04267317146389</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.60054091570828</v>
+        <v>3.176001797975777</v>
       </c>
       <c r="E20">
-        <v>16.85297348515335</v>
+        <v>21.514664152375</v>
       </c>
       <c r="F20">
-        <v>22.15018822010651</v>
+        <v>18.9580685021587</v>
       </c>
       <c r="G20">
-        <v>30.7831814804714</v>
+        <v>21.15166129876872</v>
       </c>
       <c r="H20">
-        <v>8.460120700624172</v>
+        <v>11.20920177859617</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.63779100731823</v>
+        <v>9.034317389303126</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.12192009041712</v>
+        <v>18.4135809431412</v>
       </c>
       <c r="O20">
-        <v>15.96752691323663</v>
+        <v>16.17285777921899</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.16944867188649</v>
+        <v>17.36367455730229</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.768432428928883</v>
+        <v>3.242635443308585</v>
       </c>
       <c r="E21">
-        <v>16.99043921242745</v>
+        <v>21.50648405209547</v>
       </c>
       <c r="F21">
-        <v>23.58796072199288</v>
+        <v>19.27808699406774</v>
       </c>
       <c r="G21">
-        <v>32.80167340834605</v>
+        <v>21.81704287982143</v>
       </c>
       <c r="H21">
-        <v>8.75726324755057</v>
+        <v>11.22696214115371</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.28951210935342</v>
+        <v>9.250050446268803</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.323191625825</v>
+        <v>18.44164294056792</v>
       </c>
       <c r="O21">
-        <v>16.92256051812981</v>
+        <v>16.31827837676248</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.83901670534553</v>
+        <v>17.57228372576059</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.87414040126901</v>
+        <v>3.285078650844219</v>
       </c>
       <c r="E22">
-        <v>17.08285765957436</v>
+        <v>21.50388408412795</v>
       </c>
       <c r="F22">
-        <v>24.49765274657189</v>
+        <v>19.48932917025437</v>
       </c>
       <c r="G22">
-        <v>34.08031878395268</v>
+        <v>22.24706610320398</v>
       </c>
       <c r="H22">
-        <v>8.952949722197614</v>
+        <v>11.24065497809721</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.69845996367855</v>
+        <v>9.388910219803162</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.45788154322637</v>
+        <v>18.46198292358547</v>
       </c>
       <c r="O22">
-        <v>17.59079105012448</v>
+        <v>16.4166069343573</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.48385932182395</v>
+        <v>17.4610742792575</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.8180921714644</v>
+        <v>3.262529372405395</v>
       </c>
       <c r="E23">
-        <v>17.03331376724069</v>
+        <v>21.50502208251076</v>
       </c>
       <c r="F23">
-        <v>24.01485686069665</v>
+        <v>19.37641812480426</v>
       </c>
       <c r="G23">
-        <v>33.40156331296685</v>
+        <v>22.01805206390177</v>
       </c>
       <c r="H23">
-        <v>8.848383693604037</v>
+        <v>11.23315684865763</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.48174747180988</v>
+        <v>9.315006764420957</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.38571308374819</v>
+        <v>18.45094566639442</v>
       </c>
       <c r="O23">
-        <v>17.23617574985241</v>
+        <v>16.36383509106927</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.09056513079285</v>
+        <v>17.03741131392811</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.597729564779301</v>
+        <v>3.174894563031085</v>
       </c>
       <c r="E24">
-        <v>16.8507740269647</v>
+        <v>21.51484457124293</v>
       </c>
       <c r="F24">
-        <v>22.1261788622869</v>
+        <v>18.95287871169229</v>
       </c>
       <c r="G24">
-        <v>30.74949990603759</v>
+        <v>21.14071677625557</v>
       </c>
       <c r="H24">
-        <v>8.455291904288471</v>
+        <v>11.20894687163106</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.6268514336135</v>
+        <v>9.030758367911595</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.11868489632421</v>
+        <v>18.41315638837099</v>
       </c>
       <c r="O24">
-        <v>15.95380207338381</v>
+        <v>16.17053838915574</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.48668155293533</v>
+        <v>16.57750978705801</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.343084567020223</v>
+        <v>3.075863529644245</v>
       </c>
       <c r="E25">
-        <v>16.66666343218467</v>
+        <v>21.53738925319526</v>
       </c>
       <c r="F25">
-        <v>20.19917296214683</v>
+        <v>18.50746315244938</v>
       </c>
       <c r="G25">
-        <v>27.71258382068591</v>
+        <v>20.17945530179186</v>
       </c>
       <c r="H25">
-        <v>8.038981612688378</v>
+        <v>11.19185755356283</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.63153176697257</v>
+        <v>8.716407985545459</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.84476961477869</v>
+        <v>18.38113203130776</v>
       </c>
       <c r="O25">
-        <v>14.74058385648843</v>
+        <v>15.97700430481967</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.23878994128646</v>
+        <v>16.22181360741542</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.99935422207211</v>
+        <v>3.141446330815473</v>
       </c>
       <c r="E2">
-        <v>21.56443023777952</v>
+        <v>16.54391559930122</v>
       </c>
       <c r="F2">
-        <v>18.19196770799345</v>
+        <v>18.7237875693061</v>
       </c>
       <c r="G2">
-        <v>19.46581094307508</v>
+        <v>25.36011029855665</v>
       </c>
       <c r="H2">
-        <v>11.18709037342399</v>
+        <v>7.740672721464094</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.479934202105618</v>
+        <v>9.835670906948685</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.36521348911732</v>
+        <v>14.65581671936139</v>
       </c>
       <c r="O2">
-        <v>15.84820985431647</v>
+        <v>13.82547068586529</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.01044332756856</v>
+        <v>15.31461067727909</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.954533584693999</v>
+        <v>2.996288479030947</v>
       </c>
       <c r="E3">
-        <v>21.58934862633505</v>
+        <v>16.46959994434631</v>
       </c>
       <c r="F3">
-        <v>17.98723077660098</v>
+        <v>17.68587043967895</v>
       </c>
       <c r="G3">
-        <v>18.98239725730938</v>
+        <v>23.72321889537767</v>
       </c>
       <c r="H3">
-        <v>11.18875262248342</v>
+        <v>7.544538391753505</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.317447209622369</v>
+        <v>9.25721128891588</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.35927307079072</v>
+        <v>14.53597927228188</v>
       </c>
       <c r="O3">
-        <v>15.76984899705695</v>
+        <v>13.19491230701941</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.8712669572278</v>
+        <v>14.73406029583772</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.93556071399322</v>
+        <v>2.903108174160911</v>
       </c>
       <c r="E4">
-        <v>21.60792589587436</v>
+        <v>16.42862643397772</v>
       </c>
       <c r="F4">
-        <v>17.86642068448433</v>
+        <v>17.03159775455036</v>
       </c>
       <c r="G4">
-        <v>18.68709121071567</v>
+        <v>22.6795049385285</v>
       </c>
       <c r="H4">
-        <v>11.19219014927639</v>
+        <v>7.427404981117575</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.216904228700527</v>
+        <v>8.882917316237263</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.35803865638474</v>
+        <v>14.46653669151479</v>
       </c>
       <c r="O4">
-        <v>15.72624861026139</v>
+        <v>12.80400619948758</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.81487664396024</v>
+        <v>14.49178263371811</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.927910546689169</v>
+        <v>2.864143625011609</v>
       </c>
       <c r="E5">
-        <v>21.61632420022625</v>
+        <v>16.41314111389535</v>
       </c>
       <c r="F5">
-        <v>17.81848330814386</v>
+        <v>16.76103751452805</v>
       </c>
       <c r="G5">
-        <v>18.56735113869991</v>
+        <v>22.24475885023269</v>
       </c>
       <c r="H5">
-        <v>11.19419908588276</v>
+        <v>7.380549025752151</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.175787946256657</v>
+        <v>8.725621455737265</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.35814569460835</v>
+        <v>14.43929101867947</v>
       </c>
       <c r="O5">
-        <v>15.7096315651265</v>
+        <v>12.64400918661845</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.8055346509957</v>
+        <v>14.45121567791978</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.926645388520115</v>
+        <v>2.857614487791872</v>
       </c>
       <c r="E6">
-        <v>21.61776884521066</v>
+        <v>16.41064412652165</v>
       </c>
       <c r="F6">
-        <v>17.81060322669881</v>
+        <v>16.71588428422703</v>
       </c>
       <c r="G6">
-        <v>18.54751111514608</v>
+        <v>22.17201077679044</v>
       </c>
       <c r="H6">
-        <v>11.19456940175338</v>
+        <v>7.372822984814037</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.168953419035232</v>
+        <v>8.699216040686311</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.35820040771949</v>
+        <v>14.43483080626704</v>
       </c>
       <c r="O6">
-        <v>15.70694221959301</v>
+        <v>12.61740716896261</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.87050505357</v>
+        <v>14.73081560789709</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.935457201112191</v>
+        <v>2.902586666369528</v>
       </c>
       <c r="E7">
-        <v>21.60803580119202</v>
+        <v>16.42841263486515</v>
       </c>
       <c r="F7">
-        <v>17.86576886667629</v>
+        <v>17.0279643458214</v>
       </c>
       <c r="G7">
-        <v>18.68547363293857</v>
+        <v>22.67367950365205</v>
       </c>
       <c r="H7">
-        <v>11.19221478001174</v>
+        <v>7.426769451617078</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.216350235951948</v>
+        <v>8.880815212997618</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.35803762556621</v>
+        <v>14.46616496926906</v>
       </c>
       <c r="O7">
-        <v>15.72601982968991</v>
+        <v>12.80185091628314</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.15988220435825</v>
+        <v>15.91400860608383</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.980964191220068</v>
+        <v>3.092251429635864</v>
       </c>
       <c r="E8">
-        <v>21.57234423141502</v>
+        <v>16.51735016017112</v>
       </c>
       <c r="F8">
-        <v>18.12039553093512</v>
+        <v>18.36961973724972</v>
       </c>
       <c r="G8">
-        <v>19.29894588567738</v>
+        <v>24.80388498024939</v>
       </c>
       <c r="H8">
-        <v>11.18716219812285</v>
+        <v>7.67239135866225</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.424099612601481</v>
+        <v>9.640205246571819</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.36266643942652</v>
+        <v>14.61364562036293</v>
       </c>
       <c r="O8">
-        <v>15.82026412085769</v>
+        <v>13.60896588153269</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.73260862630778</v>
+        <v>18.04023500194784</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.109800199599588</v>
+        <v>3.431093766901269</v>
       </c>
       <c r="E9">
-        <v>21.52818387215578</v>
+        <v>16.72681103446494</v>
       </c>
       <c r="F9">
-        <v>18.65574193768736</v>
+        <v>20.85430008120165</v>
       </c>
       <c r="G9">
-        <v>20.50466100833032</v>
+        <v>28.75928914993916</v>
       </c>
       <c r="H9">
-        <v>11.19640309373429</v>
+        <v>8.178054335511881</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.823191976602111</v>
+        <v>10.9766032624839</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.39073899288409</v>
+        <v>14.93509966168631</v>
       </c>
       <c r="O9">
-        <v>16.04012122102209</v>
+        <v>15.15301017057057</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.15274225677634</v>
+        <v>19.47678117724192</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.199047305325468</v>
+        <v>3.65889051002753</v>
       </c>
       <c r="E10">
-        <v>21.51124607917591</v>
+        <v>16.8993999969755</v>
       </c>
       <c r="F10">
-        <v>19.06706029028471</v>
+        <v>22.64897254322394</v>
       </c>
       <c r="G10">
-        <v>21.38032324036154</v>
+        <v>31.48308987385585</v>
       </c>
       <c r="H10">
-        <v>11.21481089851096</v>
+        <v>8.56144755014299</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.108591868378269</v>
+        <v>11.8646343945535</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.42273287580949</v>
+        <v>15.1900801356155</v>
       </c>
       <c r="O10">
-        <v>16.22186710312983</v>
+        <v>16.25394120809356</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.34293633600128</v>
+        <v>20.10207988756778</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.238381378616649</v>
+        <v>3.757786735297744</v>
       </c>
       <c r="E11">
-        <v>21.50685352695269</v>
+        <v>16.98137584986086</v>
       </c>
       <c r="F11">
-        <v>19.25722048263967</v>
+        <v>23.4965480653257</v>
       </c>
       <c r="G11">
-        <v>21.7741915611853</v>
+        <v>32.67325085386685</v>
       </c>
       <c r="H11">
-        <v>11.22568948887934</v>
+        <v>8.737918373489299</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.236191297578946</v>
+        <v>12.24827291259655</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.43970749995704</v>
+        <v>15.30996410942697</v>
       </c>
       <c r="O11">
-        <v>16.30866086781238</v>
+        <v>16.85539689167976</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.41476050537089</v>
+        <v>20.33476037491325</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.253087158623459</v>
+        <v>3.794547555003718</v>
       </c>
       <c r="E12">
-        <v>21.5056617095149</v>
+        <v>17.01286460099136</v>
       </c>
       <c r="F12">
-        <v>19.32959466501976</v>
+        <v>23.81235822158743</v>
       </c>
       <c r="G12">
-        <v>21.92252254875454</v>
+        <v>33.11697247301593</v>
       </c>
       <c r="H12">
-        <v>11.23016696965934</v>
+        <v>8.805001551342251</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.28414733489292</v>
+        <v>12.39063248173012</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.44647890846276</v>
+        <v>15.35590300044846</v>
       </c>
       <c r="O12">
-        <v>16.34209402797982</v>
+        <v>17.08741954967856</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.39930171096861</v>
+        <v>20.28483174080221</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.24992853062147</v>
+        <v>3.786661218038514</v>
       </c>
       <c r="E13">
-        <v>21.50589749454998</v>
+        <v>17.00606392133855</v>
       </c>
       <c r="F13">
-        <v>19.31399254326664</v>
+        <v>23.74457094725599</v>
       </c>
       <c r="G13">
-        <v>21.89061586075724</v>
+        <v>33.02171755921629</v>
       </c>
       <c r="H13">
-        <v>11.22918678061873</v>
+        <v>8.790543103802142</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.273835940487533</v>
+        <v>12.3601023138082</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.44500536268584</v>
+        <v>15.34598545046037</v>
       </c>
       <c r="O13">
-        <v>16.33486883675449</v>
+        <v>17.03761981569608</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.34884969003271</v>
+        <v>20.1213051849721</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.23959506350119</v>
+        <v>3.760824922464959</v>
       </c>
       <c r="E14">
-        <v>21.50674605292663</v>
+        <v>16.98395780435772</v>
       </c>
       <c r="F14">
-        <v>19.26316786361371</v>
+        <v>23.52263282547004</v>
       </c>
       <c r="G14">
-        <v>21.78641219803724</v>
+        <v>32.70989523549787</v>
       </c>
       <c r="H14">
-        <v>11.22605069291872</v>
+        <v>8.743432391873041</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.24014418024082</v>
+        <v>12.26004329862342</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.44025773070223</v>
+        <v>15.31373278373041</v>
       </c>
       <c r="O14">
-        <v>16.31140023710947</v>
+        <v>16.87456246227092</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.31791866889306</v>
+        <v>20.0206044258151</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.233240671471887</v>
+        <v>3.744909486505491</v>
       </c>
       <c r="E15">
-        <v>21.50732708381517</v>
+        <v>16.97047373402208</v>
       </c>
       <c r="F15">
-        <v>19.23208158256845</v>
+        <v>23.38602044423609</v>
       </c>
       <c r="G15">
-        <v>21.72247289848703</v>
+        <v>32.5179902754778</v>
       </c>
       <c r="H15">
-        <v>11.224176299348</v>
+        <v>8.714608181608051</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.219458504408802</v>
+        <v>12.19837482951921</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.43739426213543</v>
+        <v>15.29404705954824</v>
       </c>
       <c r="O15">
-        <v>16.29709800055932</v>
+        <v>16.77418475155756</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.14028837792301</v>
+        <v>19.43534418686696</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.196450644256937</v>
+        <v>3.652331422100266</v>
       </c>
       <c r="E16">
-        <v>21.51159939349722</v>
+        <v>16.89410797613053</v>
       </c>
       <c r="F16">
-        <v>19.05468791488822</v>
+        <v>22.5928583041053</v>
       </c>
       <c r="G16">
-        <v>21.35447772308844</v>
+        <v>31.40433090627556</v>
       </c>
       <c r="H16">
-        <v>11.21415018022683</v>
+        <v>8.54995281839183</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.100204384384138</v>
+        <v>11.83915412243106</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.42167186358144</v>
+        <v>15.18232220050803</v>
       </c>
       <c r="O16">
-        <v>16.21627559233516</v>
+        <v>16.22159835123668</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.03103370870868</v>
+        <v>19.06904138697777</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.173551847700016</v>
+        <v>3.594319321576128</v>
       </c>
       <c r="E17">
-        <v>21.51506537810313</v>
+        <v>16.84811069805734</v>
       </c>
       <c r="F17">
-        <v>18.94659103119165</v>
+        <v>22.09705759049746</v>
       </c>
       <c r="G17">
-        <v>21.12744989657562</v>
+        <v>30.70864818974515</v>
       </c>
       <c r="H17">
-        <v>11.20863956582097</v>
+        <v>8.449441064569713</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.026443634731958</v>
+        <v>11.61358016827877</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.41264342665955</v>
+        <v>15.11476657809597</v>
       </c>
       <c r="O17">
-        <v>16.16773011844293</v>
+        <v>15.93716280559934</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.968109834918</v>
+        <v>18.85570178624618</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.160262414274136</v>
+        <v>3.560507494590914</v>
       </c>
       <c r="E18">
-        <v>21.51737100900228</v>
+        <v>16.82198351833932</v>
       </c>
       <c r="F18">
-        <v>18.88470800343912</v>
+        <v>21.82914243284814</v>
       </c>
       <c r="G18">
-        <v>20.99645794570753</v>
+        <v>30.30390035125427</v>
       </c>
       <c r="H18">
-        <v>11.2057059211982</v>
+        <v>8.391825621570643</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.983810840375444</v>
+        <v>11.48192148704394</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.40767861845782</v>
+        <v>15.07627782820654</v>
       </c>
       <c r="O18">
-        <v>16.14019714539617</v>
+        <v>15.77274439095204</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.94679256790281</v>
+        <v>18.78301511377676</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.155742691992633</v>
+        <v>3.548983305233152</v>
       </c>
       <c r="E19">
-        <v>21.5182054008459</v>
+        <v>16.81319541808073</v>
       </c>
       <c r="F19">
-        <v>18.86380778443303</v>
+        <v>21.74179262876678</v>
       </c>
       <c r="G19">
-        <v>20.9520411817145</v>
+        <v>30.16606643830333</v>
       </c>
       <c r="H19">
-        <v>11.20475321939671</v>
+        <v>8.372353007907188</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.96934179220667</v>
+        <v>11.43701515964324</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.40603693383204</v>
+        <v>15.06330986161893</v>
       </c>
       <c r="O19">
-        <v>16.13094254611557</v>
+        <v>15.71693771541138</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.04267317146389</v>
+        <v>19.10830985010903</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.176001797975777</v>
+        <v>3.600540915708154</v>
       </c>
       <c r="E20">
-        <v>21.514664152375</v>
+        <v>16.85297348515323</v>
       </c>
       <c r="F20">
-        <v>18.9580685021587</v>
+        <v>22.15018822010648</v>
       </c>
       <c r="G20">
-        <v>21.15166129876872</v>
+        <v>30.78318148047138</v>
       </c>
       <c r="H20">
-        <v>11.20920177859617</v>
+        <v>8.460120700624172</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.034317389303126</v>
+        <v>11.63779100731823</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.4135809431412</v>
+        <v>15.12192009041711</v>
       </c>
       <c r="O20">
-        <v>16.17285777921899</v>
+        <v>15.96752691323664</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.36367455730229</v>
+        <v>20.16944867188649</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.242635443308585</v>
+        <v>3.768432428928967</v>
       </c>
       <c r="E21">
-        <v>21.50648405209547</v>
+        <v>16.99043921242749</v>
       </c>
       <c r="F21">
-        <v>19.27808699406774</v>
+        <v>23.58796072199291</v>
       </c>
       <c r="G21">
-        <v>21.81704287982143</v>
+        <v>32.80167340834607</v>
       </c>
       <c r="H21">
-        <v>11.22696214115371</v>
+        <v>8.757263247550553</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.250050446268803</v>
+        <v>12.28951210935337</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.44164294056792</v>
+        <v>15.32319162582497</v>
       </c>
       <c r="O21">
-        <v>16.31827837676248</v>
+        <v>16.92256051812984</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.57228372576059</v>
+        <v>20.83901670534551</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.285078650844219</v>
+        <v>3.87414040126901</v>
       </c>
       <c r="E22">
-        <v>21.50388408412795</v>
+        <v>17.08285765957432</v>
       </c>
       <c r="F22">
-        <v>19.48932917025437</v>
+        <v>24.49765274657189</v>
       </c>
       <c r="G22">
-        <v>22.24706610320398</v>
+        <v>34.08031878395267</v>
       </c>
       <c r="H22">
-        <v>11.24065497809721</v>
+        <v>8.952949722197614</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.388910219803162</v>
+        <v>12.69845996367851</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.46198292358547</v>
+        <v>15.45788154322637</v>
       </c>
       <c r="O22">
-        <v>16.4166069343573</v>
+        <v>17.59079105012448</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.4610742792575</v>
+        <v>20.48385932182395</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.262529372405395</v>
+        <v>3.818092171464386</v>
       </c>
       <c r="E23">
-        <v>21.50502208251076</v>
+        <v>17.03331376724058</v>
       </c>
       <c r="F23">
-        <v>19.37641812480426</v>
+        <v>24.01485686069666</v>
       </c>
       <c r="G23">
-        <v>22.01805206390177</v>
+        <v>33.40156331296693</v>
       </c>
       <c r="H23">
-        <v>11.23315684865763</v>
+        <v>8.848383693604013</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.315006764420957</v>
+        <v>12.48174747180992</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.45094566639442</v>
+        <v>15.3857130837482</v>
       </c>
       <c r="O23">
-        <v>16.36383509106927</v>
+        <v>17.23617574985243</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.03741131392811</v>
+        <v>19.09056513079285</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.174894563031085</v>
+        <v>3.597729564779221</v>
       </c>
       <c r="E24">
-        <v>21.51484457124293</v>
+        <v>16.85077402696473</v>
       </c>
       <c r="F24">
-        <v>18.95287871169229</v>
+        <v>22.12617886228691</v>
       </c>
       <c r="G24">
-        <v>21.14071677625557</v>
+        <v>30.74949990603762</v>
       </c>
       <c r="H24">
-        <v>11.20894687163106</v>
+        <v>8.45529190428843</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.030758367911595</v>
+        <v>11.62685143361349</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.41315638837099</v>
+        <v>15.11868489632419</v>
       </c>
       <c r="O24">
-        <v>16.17053838915574</v>
+        <v>15.95380207338379</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.57750978705801</v>
+        <v>17.48668155293527</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.075863529644245</v>
+        <v>3.343084567020175</v>
       </c>
       <c r="E25">
-        <v>21.53738925319526</v>
+        <v>16.66666343218445</v>
       </c>
       <c r="F25">
-        <v>18.50746315244938</v>
+        <v>20.19917296214682</v>
       </c>
       <c r="G25">
-        <v>20.17945530179186</v>
+        <v>27.71258382068585</v>
       </c>
       <c r="H25">
-        <v>11.19185755356283</v>
+        <v>8.038981612688378</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.716407985545459</v>
+        <v>10.63153176697251</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.38113203130776</v>
+        <v>14.84476961477864</v>
       </c>
       <c r="O25">
-        <v>15.97700430481967</v>
+        <v>14.74058385648841</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.22181360741542</v>
+        <v>6.798180327200313</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.141446330815473</v>
+        <v>7.490057667294896</v>
       </c>
       <c r="E2">
-        <v>16.54391559930122</v>
+        <v>10.51655973805836</v>
       </c>
       <c r="F2">
-        <v>18.7237875693061</v>
+        <v>20.88717486249723</v>
       </c>
       <c r="G2">
-        <v>25.36011029855665</v>
+        <v>22.00628381395016</v>
       </c>
       <c r="H2">
-        <v>7.740672721464094</v>
+        <v>1.65604942687346</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.335824518893894</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.75812094172762</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.79937013903419</v>
       </c>
       <c r="L2">
-        <v>9.835670906948685</v>
+        <v>6.72019813151181</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.13124131306568</v>
       </c>
       <c r="N2">
-        <v>14.65581671936139</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>13.82547068586529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.56683620569757</v>
+      </c>
+      <c r="P2">
+        <v>12.78741599204508</v>
+      </c>
+      <c r="Q2">
+        <v>14.27446313367921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.31461067727909</v>
+        <v>6.413691629585318</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.996288479030947</v>
+        <v>7.234378301949199</v>
       </c>
       <c r="E3">
-        <v>16.46959994434631</v>
+        <v>10.23506325513518</v>
       </c>
       <c r="F3">
-        <v>17.68587043967895</v>
+        <v>20.49740589214883</v>
       </c>
       <c r="G3">
-        <v>23.72321889537767</v>
+        <v>21.49124779161885</v>
       </c>
       <c r="H3">
-        <v>7.544538391753505</v>
+        <v>1.849918930657834</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.416014966176619</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.756173722207675</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.97434083120454</v>
       </c>
       <c r="L3">
-        <v>9.25721128891588</v>
+        <v>6.637456754027158</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.34779900572752</v>
       </c>
       <c r="N3">
-        <v>14.53597927228188</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>13.19491230701941</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.93365264013972</v>
+      </c>
+      <c r="P3">
+        <v>12.88443180427047</v>
+      </c>
+      <c r="Q3">
+        <v>14.16445071002997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.73406029583772</v>
+        <v>6.160291760516597</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.903108174160911</v>
+        <v>7.073597732361672</v>
       </c>
       <c r="E4">
-        <v>16.42862643397772</v>
+        <v>10.05772866650509</v>
       </c>
       <c r="F4">
-        <v>17.03159775455036</v>
+        <v>20.26234384994616</v>
       </c>
       <c r="G4">
-        <v>22.6795049385285</v>
+        <v>21.18097133038859</v>
       </c>
       <c r="H4">
-        <v>7.427404981117575</v>
+        <v>1.973475457423338</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.467988947280713</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.758038895556048</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.0841872274698</v>
       </c>
       <c r="L4">
-        <v>8.882917316237263</v>
+        <v>6.585304228274201</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.84347829382887</v>
       </c>
       <c r="N4">
-        <v>14.46653669151479</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>12.80400619948758</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.52917319025082</v>
+      </c>
+      <c r="P4">
+        <v>12.9462288449871</v>
+      </c>
+      <c r="Q4">
+        <v>14.10279465749567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.49178263371811</v>
+        <v>6.039829185642295</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.864143625011609</v>
+        <v>7.007556133499547</v>
       </c>
       <c r="E5">
-        <v>16.41314111389535</v>
+        <v>9.983895212489317</v>
       </c>
       <c r="F5">
-        <v>16.76103751452805</v>
+        <v>20.16415100605349</v>
       </c>
       <c r="G5">
-        <v>22.24475885023269</v>
+        <v>21.04994316986093</v>
       </c>
       <c r="H5">
-        <v>7.380549025752151</v>
+        <v>2.025030161932791</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.492684202231789</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.758529019083619</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.1274246384996</v>
       </c>
       <c r="L5">
-        <v>8.725621455737265</v>
+        <v>6.563355523900088</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.63706393559534</v>
       </c>
       <c r="N5">
-        <v>14.43929101867947</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>12.64400918661845</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.36380618724928</v>
+      </c>
+      <c r="P5">
+        <v>12.97227315041194</v>
+      </c>
+      <c r="Q5">
+        <v>14.07656926703403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.45121567791978</v>
+        <v>6.00379207067116</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.857614487791872</v>
+        <v>6.996970427148725</v>
       </c>
       <c r="E6">
-        <v>16.41064412652165</v>
+        <v>9.970963103766934</v>
       </c>
       <c r="F6">
-        <v>16.71588428422703</v>
+        <v>20.14356256281417</v>
       </c>
       <c r="G6">
-        <v>22.17201077679044</v>
+        <v>21.02068196583019</v>
       </c>
       <c r="H6">
-        <v>7.372822984814037</v>
+        <v>2.033726671364815</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.500435971856075</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.757404283303194</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.13205223975893</v>
       </c>
       <c r="L6">
-        <v>8.699216040686311</v>
+        <v>6.559249200186852</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.6083909071703</v>
       </c>
       <c r="N6">
-        <v>14.43483080626704</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>12.61740716896261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.34010740169935</v>
+      </c>
+      <c r="P6">
+        <v>12.97701374500989</v>
+      </c>
+      <c r="Q6">
+        <v>14.06916597360094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.73081560789709</v>
+        <v>6.116478099530796</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.902586666369528</v>
+        <v>7.073872730741631</v>
       </c>
       <c r="E7">
-        <v>16.42841263486515</v>
+        <v>10.05509449770531</v>
       </c>
       <c r="F7">
-        <v>17.0279643458214</v>
+        <v>20.24921673231097</v>
       </c>
       <c r="G7">
-        <v>22.67367950365205</v>
+        <v>21.15862127786298</v>
       </c>
       <c r="H7">
-        <v>7.426769451617078</v>
+        <v>1.974340765204329</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.477834143832203</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.754638965774395</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.07775847405862</v>
       </c>
       <c r="L7">
-        <v>8.880815212997618</v>
+        <v>6.58381497735144</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.85665418117278</v>
       </c>
       <c r="N7">
-        <v>14.46616496926906</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>12.80185091628314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.53762904670433</v>
+      </c>
+      <c r="P7">
+        <v>12.94770245704888</v>
+      </c>
+      <c r="Q7">
+        <v>14.0939135901272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.91400860608383</v>
+        <v>6.617202077361998</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.092251429635864</v>
+        <v>7.404205256364293</v>
       </c>
       <c r="E8">
-        <v>16.51735016017112</v>
+        <v>10.4183898867777</v>
       </c>
       <c r="F8">
-        <v>18.36961973724972</v>
+        <v>20.73680588821018</v>
       </c>
       <c r="G8">
-        <v>24.80388498024939</v>
+        <v>21.80125973156672</v>
       </c>
       <c r="H8">
-        <v>7.67239135866225</v>
+        <v>1.722171936784812</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.374827369910848</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.752359819267479</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.85032164948643</v>
       </c>
       <c r="L8">
-        <v>9.640205246571819</v>
+        <v>6.690421396856889</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.8857653463726</v>
       </c>
       <c r="N8">
-        <v>14.61364562036293</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>13.60896588153269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.36506514124055</v>
+      </c>
+      <c r="P8">
+        <v>12.8222486240521</v>
+      </c>
+      <c r="Q8">
+        <v>14.22423397003823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.04023500194784</v>
+        <v>7.527969183158484</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.431093766901269</v>
+        <v>8.016827225778272</v>
       </c>
       <c r="E9">
-        <v>16.72681103446494</v>
+        <v>11.09550352432075</v>
       </c>
       <c r="F9">
-        <v>20.85430008120165</v>
+        <v>21.74318242208686</v>
       </c>
       <c r="G9">
-        <v>28.75928914993916</v>
+        <v>23.13809032564009</v>
       </c>
       <c r="H9">
-        <v>8.178054335511881</v>
+        <v>1.851302735121955</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.178991674706785</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.778926953422102</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.43481855228237</v>
       </c>
       <c r="L9">
-        <v>10.9766032624839</v>
+        <v>6.890650014865314</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>15.68998602771953</v>
       </c>
       <c r="N9">
-        <v>14.93509966168631</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.15301017057057</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.84028802113047</v>
+      </c>
+      <c r="P9">
+        <v>12.59151924395308</v>
+      </c>
+      <c r="Q9">
+        <v>14.54211208104817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.47678117724192</v>
+        <v>8.104470060805436</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.65889051002753</v>
+        <v>8.368150479989113</v>
       </c>
       <c r="E10">
-        <v>16.8993999969755</v>
+        <v>11.40620659396823</v>
       </c>
       <c r="F10">
-        <v>22.64897254322394</v>
+        <v>22.35734033159444</v>
       </c>
       <c r="G10">
-        <v>31.48308987385585</v>
+        <v>23.98361338196533</v>
       </c>
       <c r="H10">
-        <v>8.56144755014299</v>
+        <v>2.150699010669204</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.054833876436083</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.789062637145783</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.130566348911</v>
       </c>
       <c r="L10">
-        <v>11.8646343945535</v>
+        <v>6.970413284949764</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>16.88158780979964</v>
       </c>
       <c r="N10">
-        <v>15.1900801356155</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>16.25394120809356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.725002261298</v>
+      </c>
+      <c r="P10">
+        <v>12.4419289501725</v>
+      </c>
+      <c r="Q10">
+        <v>14.73992035395175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.10207988756778</v>
+        <v>8.392763126491577</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.757786735297744</v>
+        <v>7.879672882460544</v>
       </c>
       <c r="E11">
-        <v>16.98137584986086</v>
+        <v>10.23521163772003</v>
       </c>
       <c r="F11">
-        <v>23.4965480653257</v>
+        <v>21.47005346885419</v>
       </c>
       <c r="G11">
-        <v>32.67325085386685</v>
+        <v>23.08418011784857</v>
       </c>
       <c r="H11">
-        <v>8.737918373489299</v>
+        <v>2.980905770162324</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.030415222345995</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.581792531104277</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.93597541884856</v>
       </c>
       <c r="L11">
-        <v>12.24827291259655</v>
+        <v>6.557980876326922</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>17.22182279958668</v>
       </c>
       <c r="N11">
-        <v>15.30996410942697</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>16.85539689167976</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.10426455787682</v>
+      </c>
+      <c r="P11">
+        <v>12.45484100223695</v>
+      </c>
+      <c r="Q11">
+        <v>14.28850994032831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.33476037491325</v>
+        <v>8.573902918567788</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.794547555003718</v>
+        <v>7.39389374140911</v>
       </c>
       <c r="E12">
-        <v>17.01286460099136</v>
+        <v>9.301400847952719</v>
       </c>
       <c r="F12">
-        <v>23.81235822158743</v>
+        <v>20.59210237604822</v>
       </c>
       <c r="G12">
-        <v>33.11697247301593</v>
+        <v>22.15206408431499</v>
       </c>
       <c r="H12">
-        <v>8.805001551342251</v>
+        <v>4.213804204264869</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.01848008325752</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.405294567581807</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.85109109479321</v>
       </c>
       <c r="L12">
-        <v>12.39063248173012</v>
+        <v>6.303483339030433</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>17.24554687394321</v>
       </c>
       <c r="N12">
-        <v>15.35590300044846</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>17.08741954967856</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.37258531684826</v>
+      </c>
+      <c r="P12">
+        <v>12.5015310999837</v>
+      </c>
+      <c r="Q12">
+        <v>13.86748105659257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.28483174080221</v>
+        <v>8.638879021130345</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.786661218038514</v>
+        <v>6.875382418359758</v>
       </c>
       <c r="E13">
-        <v>17.00606392133855</v>
+        <v>8.521616785526071</v>
       </c>
       <c r="F13">
-        <v>23.74457094725599</v>
+        <v>19.64098402572913</v>
       </c>
       <c r="G13">
-        <v>33.02171755921629</v>
+        <v>21.09164976507479</v>
       </c>
       <c r="H13">
-        <v>8.790543103802142</v>
+        <v>5.524640000015672</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.029921112094471</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.236411219384694</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.83473538722278</v>
       </c>
       <c r="L13">
-        <v>12.3601023138082</v>
+        <v>6.163133141251001</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>17.04769103113574</v>
       </c>
       <c r="N13">
-        <v>15.34598545046037</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>17.03761981569608</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>12.5042938181852</v>
+      </c>
+      <c r="P13">
+        <v>12.57652739988403</v>
+      </c>
+      <c r="Q13">
+        <v>13.42872001569039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.1213051849721</v>
+        <v>8.623224560084749</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.760824922464959</v>
+        <v>6.497520692383747</v>
       </c>
       <c r="E14">
-        <v>16.98395780435772</v>
+        <v>8.093403868210428</v>
       </c>
       <c r="F14">
-        <v>23.52263282547004</v>
+        <v>18.93739151669737</v>
       </c>
       <c r="G14">
-        <v>32.70989523549787</v>
+        <v>20.27986764754999</v>
       </c>
       <c r="H14">
-        <v>8.743432391873041</v>
+        <v>6.468315178496914</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.051436197631586</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.121404295066114</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.85409798900645</v>
       </c>
       <c r="L14">
-        <v>12.26004329862342</v>
+        <v>6.136207461825227</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>16.81033403347705</v>
       </c>
       <c r="N14">
-        <v>15.31373278373041</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>16.87456246227092</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.8265221830074</v>
+      </c>
+      <c r="P14">
+        <v>12.6424306870832</v>
+      </c>
+      <c r="Q14">
+        <v>13.11177179558827</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.0206044258151</v>
+        <v>8.580934050063647</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.744909486505491</v>
+        <v>6.398358907128299</v>
       </c>
       <c r="E15">
-        <v>16.97047373402208</v>
+        <v>8.006662196563273</v>
       </c>
       <c r="F15">
-        <v>23.38602044423609</v>
+        <v>18.74878208291376</v>
       </c>
       <c r="G15">
-        <v>32.5179902754778</v>
+        <v>20.05003035657646</v>
       </c>
       <c r="H15">
-        <v>8.714608181608051</v>
+        <v>6.683423512652233</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.06607984543803</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.094674296328753</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.87198495367715</v>
       </c>
       <c r="L15">
-        <v>12.19837482951921</v>
+        <v>6.13823451031797</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>16.70925136702055</v>
       </c>
       <c r="N15">
-        <v>15.29404705954824</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>16.77418475155756</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>11.63464293093089</v>
+      </c>
+      <c r="P15">
+        <v>12.66460618609427</v>
+      </c>
+      <c r="Q15">
+        <v>13.02963191593698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.43534418686696</v>
+        <v>8.316604257814822</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.652331422100266</v>
+        <v>6.3354919962177</v>
       </c>
       <c r="E16">
-        <v>16.89410797613053</v>
+        <v>8.011558508269014</v>
       </c>
       <c r="F16">
-        <v>22.5928583041053</v>
+        <v>18.64894964685013</v>
       </c>
       <c r="G16">
-        <v>31.40433090627556</v>
+        <v>19.84883552338609</v>
       </c>
       <c r="H16">
-        <v>8.54995281839183</v>
+        <v>6.443928298889098</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.12207903203239</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.121874381074417</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.99787123840789</v>
       </c>
       <c r="L16">
-        <v>11.83915412243106</v>
+        <v>6.126189123859079</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>16.25563816599952</v>
       </c>
       <c r="N16">
-        <v>15.18232220050803</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>16.22159835123668</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>11.39112202956377</v>
+      </c>
+      <c r="P16">
+        <v>12.70514900576617</v>
+      </c>
+      <c r="Q16">
+        <v>13.02206357963979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.06904138697777</v>
+        <v>8.115889411603712</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.594319321576128</v>
+        <v>6.491271051535224</v>
       </c>
       <c r="E17">
-        <v>16.84811069805734</v>
+        <v>8.220548849064656</v>
       </c>
       <c r="F17">
-        <v>22.09705759049746</v>
+        <v>18.95237733803803</v>
       </c>
       <c r="G17">
-        <v>30.70864818974515</v>
+        <v>20.13829105717056</v>
       </c>
       <c r="H17">
-        <v>8.449441064569713</v>
+        <v>5.690862335383262</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.154397925982239</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.204105762634239</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.08435545650788</v>
       </c>
       <c r="L17">
-        <v>11.61358016827877</v>
+        <v>6.120133812864103</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>16.0333499595757</v>
       </c>
       <c r="N17">
-        <v>15.11476657809597</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>15.93716280559934</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>11.57885117092598</v>
+      </c>
+      <c r="P17">
+        <v>12.70276403338519</v>
+      </c>
+      <c r="Q17">
+        <v>13.1866265309688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.85570178624618</v>
+        <v>7.981824462238254</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.560507494590914</v>
+        <v>6.859265498460062</v>
       </c>
       <c r="E18">
-        <v>16.82198351833932</v>
+        <v>8.746619353673433</v>
       </c>
       <c r="F18">
-        <v>21.82914243284814</v>
+        <v>19.64275432093515</v>
       </c>
       <c r="G18">
-        <v>30.30390035125427</v>
+        <v>20.88967420033186</v>
       </c>
       <c r="H18">
-        <v>8.391825621570643</v>
+        <v>4.442575053583273</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.159423742700981</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.344077027669506</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.15181587651397</v>
       </c>
       <c r="L18">
-        <v>11.48192148704394</v>
+        <v>6.184184744679071</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>15.98029461328854</v>
       </c>
       <c r="N18">
-        <v>15.07627782820654</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>15.77274439095204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.15325143507277</v>
+      </c>
+      <c r="P18">
+        <v>12.66323961663343</v>
+      </c>
+      <c r="Q18">
+        <v>13.52071500505651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.78301511377676</v>
+        <v>7.850913081118943</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.548983305233152</v>
+        <v>7.378768322637693</v>
       </c>
       <c r="E19">
-        <v>16.81319541808073</v>
+        <v>9.625535440300347</v>
       </c>
       <c r="F19">
-        <v>21.74179262876678</v>
+        <v>20.57244063741159</v>
       </c>
       <c r="G19">
-        <v>30.16606643830333</v>
+        <v>21.91316565326011</v>
       </c>
       <c r="H19">
-        <v>8.372353007907188</v>
+        <v>3.067141965977031</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.160926067950229</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.514256418214746</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.19888457087406</v>
       </c>
       <c r="L19">
-        <v>11.43701515964324</v>
+        <v>6.391269204857595</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>16.09331268082674</v>
       </c>
       <c r="N19">
-        <v>15.06330986161893</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>15.71693771541138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.00226787295553</v>
+      </c>
+      <c r="P19">
+        <v>12.60666309895656</v>
+      </c>
+      <c r="Q19">
+        <v>13.95089046016451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.10830985010903</v>
+        <v>7.85575089441496</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.600540915708154</v>
+        <v>8.276960958594341</v>
       </c>
       <c r="E20">
-        <v>16.85297348515323</v>
+        <v>11.31426029731134</v>
       </c>
       <c r="F20">
-        <v>22.15018822010648</v>
+        <v>22.15641835284667</v>
       </c>
       <c r="G20">
-        <v>30.78318148047138</v>
+        <v>23.69774497002269</v>
       </c>
       <c r="H20">
-        <v>8.460120700624172</v>
+        <v>2.071085974936933</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.11680498559964</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.77412443014175</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.19138025721782</v>
       </c>
       <c r="L20">
-        <v>11.63779100731823</v>
+        <v>6.943805640133545</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>16.61548312358088</v>
       </c>
       <c r="N20">
-        <v>15.12192009041711</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>15.96752691323664</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.51886971516705</v>
+      </c>
+      <c r="P20">
+        <v>12.487026474066</v>
+      </c>
+      <c r="Q20">
+        <v>14.65857078627516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.16944867188649</v>
+        <v>8.281177488102015</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.768432428928967</v>
+        <v>8.654554942839402</v>
       </c>
       <c r="E21">
-        <v>16.99043921242749</v>
+        <v>11.79340032634859</v>
       </c>
       <c r="F21">
-        <v>23.58796072199291</v>
+        <v>22.84497141284689</v>
       </c>
       <c r="G21">
-        <v>32.80167340834607</v>
+        <v>24.58992369246663</v>
       </c>
       <c r="H21">
-        <v>8.757263247550553</v>
+        <v>2.311775600758558</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.016978905461651</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.826941627507178</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.9757675703449</v>
       </c>
       <c r="L21">
-        <v>12.28951210935337</v>
+        <v>7.096670766960446</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>17.51731841559537</v>
       </c>
       <c r="N21">
-        <v>15.32319162582497</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>16.92256051812984</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.34707570020411</v>
+      </c>
+      <c r="P21">
+        <v>12.36342985277171</v>
+      </c>
+      <c r="Q21">
+        <v>14.9209963165073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.83901670534551</v>
+        <v>8.588034092825991</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.87414040126901</v>
+        <v>8.856159783342097</v>
       </c>
       <c r="E22">
-        <v>17.08285765957432</v>
+        <v>12.02058681272078</v>
       </c>
       <c r="F22">
-        <v>24.49765274657189</v>
+        <v>23.24057956350286</v>
       </c>
       <c r="G22">
-        <v>34.08031878395267</v>
+        <v>25.12127652584126</v>
       </c>
       <c r="H22">
-        <v>8.952949722197614</v>
+        <v>2.459754161846261</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.942530708832951</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.856567991294007</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.84055011428731</v>
       </c>
       <c r="L22">
-        <v>12.69845996367851</v>
+        <v>7.165877086991348</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>18.05792820598323</v>
       </c>
       <c r="N22">
-        <v>15.45788154322637</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>17.59079105012448</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>15.80060526639581</v>
+      </c>
+      <c r="P22">
+        <v>12.28576467900762</v>
+      </c>
+      <c r="Q22">
+        <v>15.07647912522751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.48385932182395</v>
+        <v>8.462668223774381</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.818092171464386</v>
+        <v>8.747918598025684</v>
       </c>
       <c r="E23">
-        <v>17.03331376724058</v>
+        <v>11.9014222160884</v>
       </c>
       <c r="F23">
-        <v>24.01485686069666</v>
+        <v>23.04131723535656</v>
       </c>
       <c r="G23">
-        <v>33.40156331296693</v>
+        <v>24.85786398310787</v>
       </c>
       <c r="H23">
-        <v>8.848383693604013</v>
+        <v>2.381197460592206</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.970383541597784</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.844221260354876</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.91925024508894</v>
       </c>
       <c r="L23">
-        <v>12.48174747180992</v>
+        <v>7.130284789705588</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>17.75710996511245</v>
       </c>
       <c r="N23">
-        <v>15.3857130837482</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>17.23617574985243</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.55060725033336</v>
+      </c>
+      <c r="P23">
+        <v>12.32440584845901</v>
+      </c>
+      <c r="Q23">
+        <v>15.00208240292478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.09056513079285</v>
+        <v>7.89995021185976</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.597729564779221</v>
+        <v>8.329292122567352</v>
       </c>
       <c r="E24">
-        <v>16.85077402696473</v>
+        <v>11.43679985659178</v>
       </c>
       <c r="F24">
-        <v>22.12617886228691</v>
+        <v>22.27038051085139</v>
       </c>
       <c r="G24">
-        <v>30.74949990603762</v>
+        <v>23.83186521839011</v>
       </c>
       <c r="H24">
-        <v>8.45529190428843</v>
+        <v>2.076745873434759</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.098789675352501</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.798281424390792</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.21049645140685</v>
       </c>
       <c r="L24">
-        <v>11.62685143361349</v>
+        <v>6.991030430290136</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>16.59563519564198</v>
       </c>
       <c r="N24">
-        <v>15.11868489632419</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>15.95380207338379</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.58486125667404</v>
+      </c>
+      <c r="P24">
+        <v>12.47936820110633</v>
+      </c>
+      <c r="Q24">
+        <v>14.71757790166827</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.48668155293527</v>
+        <v>7.232017416836698</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.343084567020175</v>
+        <v>7.85694927574982</v>
       </c>
       <c r="E25">
-        <v>16.66666343218445</v>
+        <v>10.9140492684812</v>
       </c>
       <c r="F25">
-        <v>20.19917296214682</v>
+        <v>21.44847447131923</v>
       </c>
       <c r="G25">
-        <v>27.71258382068585</v>
+        <v>22.73874996805539</v>
       </c>
       <c r="H25">
-        <v>8.038981612688378</v>
+        <v>1.733343004466399</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.246396769645906</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.762986349188882</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.5340231112369</v>
       </c>
       <c r="L25">
-        <v>10.63153176697251</v>
+        <v>6.835665276285563</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.24715649576556</v>
       </c>
       <c r="N25">
-        <v>14.84476961477864</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>14.74058385648841</v>
+        <v>13.47229296112764</v>
+      </c>
+      <c r="P25">
+        <v>12.65513668218383</v>
+      </c>
+      <c r="Q25">
+        <v>14.43625735993064</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.798180327200313</v>
+        <v>6.838480459561609</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.490057667294896</v>
+        <v>7.47699532356606</v>
       </c>
       <c r="E2">
-        <v>10.51655973805836</v>
+        <v>10.49045018589918</v>
       </c>
       <c r="F2">
-        <v>20.88717486249723</v>
+        <v>20.89743062991485</v>
       </c>
       <c r="G2">
-        <v>22.00628381395016</v>
+        <v>21.40000172724189</v>
       </c>
       <c r="H2">
-        <v>1.65604942687346</v>
+        <v>1.652154353119315</v>
       </c>
       <c r="I2">
-        <v>3.335824518893894</v>
+        <v>3.093448159132887</v>
       </c>
       <c r="J2">
-        <v>8.75812094172762</v>
+        <v>9.250031757455455</v>
       </c>
       <c r="K2">
-        <v>13.79937013903419</v>
+        <v>13.24088222432106</v>
       </c>
       <c r="L2">
-        <v>6.72019813151181</v>
+        <v>10.81836785945354</v>
       </c>
       <c r="M2">
-        <v>14.13124131306568</v>
+        <v>8.694533884238909</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.704542380500691</v>
       </c>
       <c r="O2">
-        <v>12.56683620569757</v>
+        <v>14.03075442081933</v>
       </c>
       <c r="P2">
-        <v>12.78741599204508</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.27446313367921</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.61499590558208</v>
+      </c>
+      <c r="R2">
+        <v>12.65409818244365</v>
+      </c>
+      <c r="S2">
+        <v>14.29045648060544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.413691629585318</v>
+        <v>6.502474287125273</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.234378301949199</v>
+        <v>7.221854359292836</v>
       </c>
       <c r="E3">
-        <v>10.23506325513518</v>
+        <v>10.21389106958839</v>
       </c>
       <c r="F3">
-        <v>20.49740589214883</v>
+        <v>20.51675906349088</v>
       </c>
       <c r="G3">
-        <v>21.49124779161885</v>
+        <v>20.90605032328009</v>
       </c>
       <c r="H3">
-        <v>1.849918930657834</v>
+        <v>1.842494047318674</v>
       </c>
       <c r="I3">
-        <v>3.416014966176619</v>
+        <v>3.160377687967005</v>
       </c>
       <c r="J3">
-        <v>8.756173722207675</v>
+        <v>9.221032134464339</v>
       </c>
       <c r="K3">
-        <v>13.97434083120454</v>
+        <v>13.40201755602556</v>
       </c>
       <c r="L3">
-        <v>6.637456754027158</v>
+        <v>10.96351671300504</v>
       </c>
       <c r="M3">
-        <v>13.34779900572752</v>
+        <v>8.850433139831605</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.624546841208274</v>
       </c>
       <c r="O3">
-        <v>11.93365264013972</v>
+        <v>13.22154369259987</v>
       </c>
       <c r="P3">
-        <v>12.88443180427047</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.16445071002997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.97197395002439</v>
+      </c>
+      <c r="R3">
+        <v>12.74151193242636</v>
+      </c>
+      <c r="S3">
+        <v>14.18461826869232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.160291760516597</v>
+        <v>6.279525573816763</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.073597732361672</v>
+        <v>7.061524498782286</v>
       </c>
       <c r="E4">
-        <v>10.05772866650509</v>
+        <v>10.03972369650194</v>
       </c>
       <c r="F4">
-        <v>20.26234384994616</v>
+        <v>20.28668167476227</v>
       </c>
       <c r="G4">
-        <v>21.18097133038859</v>
+        <v>20.61093009452114</v>
       </c>
       <c r="H4">
-        <v>1.973475457423338</v>
+        <v>1.963809816459503</v>
       </c>
       <c r="I4">
-        <v>3.467988947280713</v>
+        <v>3.204114585969387</v>
       </c>
       <c r="J4">
-        <v>8.758038895556048</v>
+        <v>9.20461555884051</v>
       </c>
       <c r="K4">
-        <v>14.0841872274698</v>
+        <v>13.50316060378755</v>
       </c>
       <c r="L4">
-        <v>6.585304228274201</v>
+        <v>11.06207125261407</v>
       </c>
       <c r="M4">
-        <v>12.84347829382887</v>
+        <v>8.955233643989137</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.574109302307438</v>
       </c>
       <c r="O4">
-        <v>11.52917319025082</v>
+        <v>12.70036151423668</v>
       </c>
       <c r="P4">
-        <v>12.9462288449871</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.10279465749567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.56137763408802</v>
+      </c>
+      <c r="R4">
+        <v>12.79765513024659</v>
+      </c>
+      <c r="S4">
+        <v>14.12492705291103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.039829185642295</v>
+        <v>6.172998594853197</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.007556133499547</v>
+        <v>6.995677442437745</v>
       </c>
       <c r="E5">
-        <v>9.983895212489317</v>
+        <v>9.967245866032975</v>
       </c>
       <c r="F5">
-        <v>20.16415100605349</v>
+        <v>20.19057951748364</v>
       </c>
       <c r="G5">
-        <v>21.04994316986093</v>
+        <v>20.486880746769</v>
       </c>
       <c r="H5">
-        <v>2.025030161932791</v>
+        <v>2.014428625118954</v>
       </c>
       <c r="I5">
-        <v>3.492684202231789</v>
+        <v>3.225925403704156</v>
       </c>
       <c r="J5">
-        <v>8.758529019083619</v>
+        <v>9.197322099439292</v>
       </c>
       <c r="K5">
-        <v>14.1274246384996</v>
+        <v>13.5426990498018</v>
       </c>
       <c r="L5">
-        <v>6.563355523900088</v>
+        <v>11.10083003326412</v>
       </c>
       <c r="M5">
-        <v>12.63706393559534</v>
+        <v>9.000711003003312</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.552888816524587</v>
       </c>
       <c r="O5">
-        <v>11.36380618724928</v>
+        <v>12.48656012733004</v>
       </c>
       <c r="P5">
-        <v>12.97227315041194</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.07656926703403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.39329062277528</v>
+      </c>
+      <c r="R5">
+        <v>12.821414906755</v>
+      </c>
+      <c r="S5">
+        <v>14.09950629204988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.00379207067116</v>
+        <v>6.141008785110529</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.996970427148725</v>
+        <v>6.985099819269109</v>
       </c>
       <c r="E6">
-        <v>9.970963103766934</v>
+        <v>9.954580054225692</v>
       </c>
       <c r="F6">
-        <v>20.14356256281417</v>
+        <v>20.17059702718787</v>
       </c>
       <c r="G6">
-        <v>21.02068196583019</v>
+        <v>20.45914698890061</v>
       </c>
       <c r="H6">
-        <v>2.033726671364815</v>
+        <v>2.022963912955499</v>
       </c>
       <c r="I6">
-        <v>3.500435971856075</v>
+        <v>3.233853691903045</v>
       </c>
       <c r="J6">
-        <v>8.757404283303194</v>
+        <v>9.194970359616196</v>
       </c>
       <c r="K6">
-        <v>14.13205223975893</v>
+        <v>13.54659412662096</v>
       </c>
       <c r="L6">
-        <v>6.559249200186852</v>
+        <v>11.1028902774544</v>
       </c>
       <c r="M6">
-        <v>12.6083909071703</v>
+        <v>9.009005731717391</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.548931385098602</v>
       </c>
       <c r="O6">
-        <v>11.34010740169935</v>
+        <v>12.45632200755443</v>
       </c>
       <c r="P6">
-        <v>12.97701374500989</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.06916597360094</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.3688688957322</v>
+      </c>
+      <c r="R6">
+        <v>12.82573163103411</v>
+      </c>
+      <c r="S6">
+        <v>14.09241775675742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.116478099530796</v>
+        <v>6.242846509707524</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.073872730741631</v>
+        <v>7.064877720183629</v>
       </c>
       <c r="E7">
-        <v>10.05509449770531</v>
+        <v>10.03852462983988</v>
       </c>
       <c r="F7">
-        <v>20.24921673231097</v>
+        <v>20.26223421954046</v>
       </c>
       <c r="G7">
-        <v>21.15862127786298</v>
+        <v>20.67699908597117</v>
       </c>
       <c r="H7">
-        <v>1.974340765204329</v>
+        <v>1.965209025191841</v>
       </c>
       <c r="I7">
-        <v>3.477834143832203</v>
+        <v>3.215790396035902</v>
       </c>
       <c r="J7">
-        <v>8.754638965774395</v>
+        <v>9.164407039520528</v>
       </c>
       <c r="K7">
-        <v>14.07775847405862</v>
+        <v>13.49558992179974</v>
       </c>
       <c r="L7">
-        <v>6.58381497735144</v>
+        <v>11.04967136983767</v>
       </c>
       <c r="M7">
-        <v>12.85665418117278</v>
+        <v>8.956974177746115</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.57245181435991</v>
       </c>
       <c r="O7">
-        <v>11.53762904670433</v>
+        <v>12.70595812864574</v>
       </c>
       <c r="P7">
-        <v>12.94770245704888</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.0939135901272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.56601150933106</v>
+      </c>
+      <c r="R7">
+        <v>12.79944796368006</v>
+      </c>
+      <c r="S7">
+        <v>14.10733718869042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.617202077361998</v>
+        <v>6.68691465404207</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.404205256364293</v>
+        <v>7.401319359506897</v>
       </c>
       <c r="E8">
-        <v>10.4183898867777</v>
+        <v>10.39843389486278</v>
       </c>
       <c r="F8">
-        <v>20.73680588821018</v>
+        <v>20.71201913258746</v>
       </c>
       <c r="G8">
-        <v>21.80125973156672</v>
+        <v>21.48669442012061</v>
       </c>
       <c r="H8">
-        <v>1.722171936784812</v>
+        <v>1.718784311106649</v>
       </c>
       <c r="I8">
-        <v>3.374827369910848</v>
+        <v>3.130538347225437</v>
       </c>
       <c r="J8">
-        <v>8.752359819267479</v>
+        <v>9.114847457871308</v>
       </c>
       <c r="K8">
-        <v>13.85032164948643</v>
+        <v>13.28465079620969</v>
       </c>
       <c r="L8">
-        <v>6.690421396856889</v>
+        <v>10.85093641217721</v>
       </c>
       <c r="M8">
-        <v>13.8857653463726</v>
+        <v>8.745095282500337</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.67504519192507</v>
       </c>
       <c r="O8">
-        <v>12.36506514124055</v>
+        <v>13.75499475844879</v>
       </c>
       <c r="P8">
-        <v>12.8222486240521</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.22423397003823</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.3993848920207</v>
+      </c>
+      <c r="R8">
+        <v>12.68730487891817</v>
+      </c>
+      <c r="S8">
+        <v>14.21207422709597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.527969183158484</v>
+        <v>7.477848078098742</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.016827225778272</v>
+        <v>8.015230073085554</v>
       </c>
       <c r="E9">
-        <v>11.09550352432075</v>
+        <v>11.06496814046356</v>
       </c>
       <c r="F9">
-        <v>21.74318242208686</v>
+        <v>21.68321187333718</v>
       </c>
       <c r="G9">
-        <v>23.13809032564009</v>
+        <v>22.84217676958173</v>
       </c>
       <c r="H9">
-        <v>1.851302735121955</v>
+        <v>1.846116373188982</v>
       </c>
       <c r="I9">
-        <v>3.178991674706785</v>
+        <v>2.965502255743146</v>
       </c>
       <c r="J9">
-        <v>8.778926953422102</v>
+        <v>9.166491297533677</v>
       </c>
       <c r="K9">
-        <v>13.43481855228237</v>
+        <v>12.90282883608109</v>
       </c>
       <c r="L9">
-        <v>6.890650014865314</v>
+        <v>10.55811983453605</v>
       </c>
       <c r="M9">
-        <v>15.68998602771953</v>
+        <v>8.40358554756086</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.868439659654735</v>
       </c>
       <c r="O9">
-        <v>13.84028802113047</v>
+        <v>15.61548539226435</v>
       </c>
       <c r="P9">
-        <v>12.59151924395308</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.54211208104817</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.89760787566305</v>
+      </c>
+      <c r="R9">
+        <v>12.48313640198258</v>
+      </c>
+      <c r="S9">
+        <v>14.50808665135315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.104470060805436</v>
+        <v>7.990784486358033</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.368150479989113</v>
+        <v>8.383444127598054</v>
       </c>
       <c r="E10">
-        <v>11.40620659396823</v>
+        <v>11.37577730455273</v>
       </c>
       <c r="F10">
-        <v>22.35734033159444</v>
+        <v>22.20809956435675</v>
       </c>
       <c r="G10">
-        <v>23.98361338196533</v>
+        <v>24.16836921793126</v>
       </c>
       <c r="H10">
-        <v>2.150699010669204</v>
+        <v>2.13727718302697</v>
       </c>
       <c r="I10">
-        <v>3.054833876436083</v>
+        <v>2.865109250399639</v>
       </c>
       <c r="J10">
-        <v>8.789062637145783</v>
+        <v>8.985695614091659</v>
       </c>
       <c r="K10">
-        <v>13.130566348911</v>
+        <v>12.62168641647982</v>
       </c>
       <c r="L10">
-        <v>6.970413284949764</v>
+        <v>10.38628066420577</v>
       </c>
       <c r="M10">
-        <v>16.88158780979964</v>
+        <v>8.186681254085878</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.942568766384209</v>
       </c>
       <c r="O10">
-        <v>14.725002261298</v>
+        <v>16.81009448523205</v>
       </c>
       <c r="P10">
-        <v>12.4419289501725</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.73992035395175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.78223308929885</v>
+      </c>
+      <c r="R10">
+        <v>12.35902730434046</v>
+      </c>
+      <c r="S10">
+        <v>14.63760212430446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.392763126491577</v>
+        <v>8.323927359686124</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.879672882460544</v>
+        <v>7.925403982643619</v>
       </c>
       <c r="E11">
-        <v>10.23521163772003</v>
+        <v>10.21220350064768</v>
       </c>
       <c r="F11">
-        <v>21.47005346885419</v>
+        <v>21.19343710182058</v>
       </c>
       <c r="G11">
-        <v>23.08418011784857</v>
+        <v>24.2744063162029</v>
       </c>
       <c r="H11">
-        <v>2.980905770162324</v>
+        <v>2.966531187029988</v>
       </c>
       <c r="I11">
-        <v>3.030415222345995</v>
+        <v>2.853549101805894</v>
       </c>
       <c r="J11">
-        <v>8.581792531104277</v>
+        <v>8.410077878995823</v>
       </c>
       <c r="K11">
-        <v>12.93597541884856</v>
+        <v>12.4512928898859</v>
       </c>
       <c r="L11">
-        <v>6.557980876326922</v>
+        <v>10.30240432949365</v>
       </c>
       <c r="M11">
-        <v>17.22182279958668</v>
+        <v>8.042670276831638</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.52762494380599</v>
       </c>
       <c r="O11">
-        <v>14.10426455787682</v>
+        <v>17.0796396392658</v>
       </c>
       <c r="P11">
-        <v>12.45484100223695</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.28850994032831</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.1263713899455</v>
+      </c>
+      <c r="R11">
+        <v>12.39457569671883</v>
+      </c>
+      <c r="S11">
+        <v>14.08406702437313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.573902918567788</v>
+        <v>8.543802717703871</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.39389374140911</v>
+        <v>7.450682407235345</v>
       </c>
       <c r="E12">
-        <v>9.301400847952719</v>
+        <v>9.275652966936262</v>
       </c>
       <c r="F12">
-        <v>20.59210237604822</v>
+        <v>20.26771082744589</v>
       </c>
       <c r="G12">
-        <v>22.15206408431499</v>
+        <v>23.80716676743115</v>
       </c>
       <c r="H12">
-        <v>4.213804204264869</v>
+        <v>4.202601693660664</v>
       </c>
       <c r="I12">
-        <v>3.01848008325752</v>
+        <v>2.84408060297175</v>
       </c>
       <c r="J12">
-        <v>8.405294567581807</v>
+        <v>8.110938457936125</v>
       </c>
       <c r="K12">
-        <v>12.85109109479321</v>
+        <v>12.38209729523182</v>
       </c>
       <c r="L12">
-        <v>6.303483339030433</v>
+        <v>10.27854251764189</v>
       </c>
       <c r="M12">
-        <v>17.24554687394321</v>
+        <v>7.974165573677807</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.272569888675947</v>
       </c>
       <c r="O12">
-        <v>13.37258531684826</v>
+        <v>17.06249782353224</v>
       </c>
       <c r="P12">
-        <v>12.5015310999837</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.86748105659257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.37486923003694</v>
+      </c>
+      <c r="R12">
+        <v>12.45237887977984</v>
+      </c>
+      <c r="S12">
+        <v>13.624609362599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.638879021130345</v>
+        <v>8.646860543316796</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.875382418359758</v>
+        <v>6.923070410371153</v>
       </c>
       <c r="E13">
-        <v>8.521616785526071</v>
+        <v>8.485462991743928</v>
       </c>
       <c r="F13">
-        <v>19.64098402572913</v>
+        <v>19.35342797899176</v>
       </c>
       <c r="G13">
-        <v>21.09164976507479</v>
+        <v>22.62321514903271</v>
       </c>
       <c r="H13">
-        <v>5.524640000015672</v>
+        <v>5.516846109223049</v>
       </c>
       <c r="I13">
-        <v>3.029921112094471</v>
+        <v>2.85281151857227</v>
       </c>
       <c r="J13">
-        <v>8.236411219384694</v>
+        <v>8.028952700721483</v>
       </c>
       <c r="K13">
-        <v>12.83473538722278</v>
+        <v>12.37513581758364</v>
       </c>
       <c r="L13">
-        <v>6.163133141251001</v>
+        <v>10.2798084007294</v>
       </c>
       <c r="M13">
-        <v>17.04769103113574</v>
+        <v>7.956914222348615</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.133669015505044</v>
       </c>
       <c r="O13">
-        <v>12.5042938181852</v>
+        <v>16.85515167925475</v>
       </c>
       <c r="P13">
-        <v>12.57652739988403</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.42872001569039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>12.502260191717</v>
+      </c>
+      <c r="R13">
+        <v>12.52521892709185</v>
+      </c>
+      <c r="S13">
+        <v>13.21515254667462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.623224560084749</v>
+        <v>8.659033393044997</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.497520692383747</v>
+        <v>6.530705354510588</v>
       </c>
       <c r="E14">
-        <v>8.093403868210428</v>
+        <v>8.049165980018676</v>
       </c>
       <c r="F14">
-        <v>18.93739151669737</v>
+        <v>18.71110333782849</v>
       </c>
       <c r="G14">
-        <v>20.27986764754999</v>
+        <v>21.46792008606099</v>
       </c>
       <c r="H14">
-        <v>6.468315178496914</v>
+        <v>6.462627510871255</v>
       </c>
       <c r="I14">
-        <v>3.051436197631586</v>
+        <v>2.870711521476996</v>
       </c>
       <c r="J14">
-        <v>8.121404295066114</v>
+        <v>8.053924683930317</v>
       </c>
       <c r="K14">
-        <v>12.85409798900645</v>
+        <v>12.39683464769717</v>
       </c>
       <c r="L14">
-        <v>6.136207461825227</v>
+        <v>10.2887479703573</v>
       </c>
       <c r="M14">
-        <v>16.81033403347705</v>
+        <v>7.96947932912318</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.108640589308699</v>
       </c>
       <c r="O14">
-        <v>11.8265221830074</v>
+        <v>16.62442411815769</v>
       </c>
       <c r="P14">
-        <v>12.6424306870832</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.11177179558827</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.82801554226196</v>
+      </c>
+      <c r="R14">
+        <v>12.5827497916407</v>
+      </c>
+      <c r="S14">
+        <v>12.94674497755931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.580934050063647</v>
+        <v>8.625207618882811</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.398358907128299</v>
+        <v>6.424792263757291</v>
       </c>
       <c r="E15">
-        <v>8.006662196563273</v>
+        <v>7.960777321169655</v>
       </c>
       <c r="F15">
-        <v>18.74878208291376</v>
+        <v>18.5523857275797</v>
       </c>
       <c r="G15">
-        <v>20.05003035657646</v>
+        <v>21.04611626491366</v>
       </c>
       <c r="H15">
-        <v>6.683423512652233</v>
+        <v>6.678392583741786</v>
       </c>
       <c r="I15">
-        <v>3.06607984543803</v>
+        <v>2.884219907565933</v>
       </c>
       <c r="J15">
-        <v>8.094674296328753</v>
+        <v>8.095531292436064</v>
       </c>
       <c r="K15">
-        <v>12.87198495367715</v>
+        <v>12.41371242987641</v>
       </c>
       <c r="L15">
-        <v>6.13823451031797</v>
+        <v>10.29420954091884</v>
       </c>
       <c r="M15">
-        <v>16.70925136702055</v>
+        <v>7.983446104420993</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.111525176540975</v>
       </c>
       <c r="O15">
-        <v>11.63464293093089</v>
+        <v>16.53040515871341</v>
       </c>
       <c r="P15">
-        <v>12.66460618609427</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.02963191593698</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.63956666892113</v>
+      </c>
+      <c r="R15">
+        <v>12.59997346930881</v>
+      </c>
+      <c r="S15">
+        <v>12.88824377662115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.316604257814822</v>
+        <v>8.368218480498649</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.3354919962177</v>
+        <v>6.335636023255156</v>
       </c>
       <c r="E16">
-        <v>8.011558508269014</v>
+        <v>7.967090102955265</v>
       </c>
       <c r="F16">
-        <v>18.64894964685013</v>
+        <v>18.57471381431477</v>
       </c>
       <c r="G16">
-        <v>19.84883552338609</v>
+        <v>19.95863209578602</v>
       </c>
       <c r="H16">
-        <v>6.443928298889098</v>
+        <v>6.446134814890564</v>
       </c>
       <c r="I16">
-        <v>3.12207903203239</v>
+        <v>2.930814425702635</v>
       </c>
       <c r="J16">
-        <v>8.121874381074417</v>
+        <v>8.422828071331418</v>
       </c>
       <c r="K16">
-        <v>12.99787123840789</v>
+        <v>12.52496734659121</v>
       </c>
       <c r="L16">
-        <v>6.126189123859079</v>
+        <v>10.32827155606102</v>
       </c>
       <c r="M16">
-        <v>16.25563816599952</v>
+        <v>8.089740149317276</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.103003829418973</v>
       </c>
       <c r="O16">
-        <v>11.39112202956377</v>
+        <v>16.12313744589368</v>
       </c>
       <c r="P16">
-        <v>12.70514900576617</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.02206357963979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.41830803655114</v>
+      </c>
+      <c r="R16">
+        <v>12.61713004016432</v>
+      </c>
+      <c r="S16">
+        <v>12.97696292106244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.115889411603712</v>
+        <v>8.160917794263458</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.491271051535224</v>
+        <v>6.481607517190856</v>
       </c>
       <c r="E17">
-        <v>8.220548849064656</v>
+        <v>8.178455149727705</v>
       </c>
       <c r="F17">
-        <v>18.95237733803803</v>
+        <v>18.92528120238989</v>
       </c>
       <c r="G17">
-        <v>20.13829105717056</v>
+        <v>19.8748693427493</v>
       </c>
       <c r="H17">
-        <v>5.690862335383262</v>
+        <v>5.692666633909619</v>
       </c>
       <c r="I17">
-        <v>3.154397925982239</v>
+        <v>2.958091488899181</v>
       </c>
       <c r="J17">
-        <v>8.204105762634239</v>
+        <v>8.635158929398781</v>
       </c>
       <c r="K17">
-        <v>13.08435545650788</v>
+        <v>12.60084135974098</v>
       </c>
       <c r="L17">
-        <v>6.120133812864103</v>
+        <v>10.35787724396557</v>
       </c>
       <c r="M17">
-        <v>16.0333499595757</v>
+        <v>8.162294818564808</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.098436539493004</v>
       </c>
       <c r="O17">
-        <v>11.57885117092598</v>
+        <v>15.92501822006935</v>
       </c>
       <c r="P17">
-        <v>12.70276403338519</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.1866265309688</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.61757690187791</v>
+      </c>
+      <c r="R17">
+        <v>12.60454922100379</v>
+      </c>
+      <c r="S17">
+        <v>13.17844637877847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.981824462238254</v>
+        <v>7.999898808153949</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.859265498460062</v>
+        <v>6.846946210932373</v>
       </c>
       <c r="E18">
-        <v>8.746619353673433</v>
+        <v>8.706486244334636</v>
       </c>
       <c r="F18">
-        <v>19.64275432093515</v>
+        <v>19.62730860220078</v>
       </c>
       <c r="G18">
-        <v>20.88967420033186</v>
+        <v>20.47017683234245</v>
       </c>
       <c r="H18">
-        <v>4.442575053583273</v>
+        <v>4.440222023065861</v>
       </c>
       <c r="I18">
-        <v>3.159423742700981</v>
+        <v>2.959175393530231</v>
       </c>
       <c r="J18">
-        <v>8.344077027669506</v>
+        <v>8.825644034212385</v>
       </c>
       <c r="K18">
-        <v>13.15181587651397</v>
+        <v>12.65926878208069</v>
       </c>
       <c r="L18">
-        <v>6.184184744679071</v>
+        <v>10.38889278616348</v>
       </c>
       <c r="M18">
-        <v>15.98029461328854</v>
+        <v>8.214294483054504</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.162752984632752</v>
       </c>
       <c r="O18">
-        <v>12.15325143507277</v>
+        <v>15.89148238213057</v>
       </c>
       <c r="P18">
-        <v>12.66323961663343</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.52071500505651</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.2014254923709</v>
+      </c>
+      <c r="R18">
+        <v>12.56183096552146</v>
+      </c>
+      <c r="S18">
+        <v>13.52190139481341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.850913081118943</v>
+        <v>7.832162810699065</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.378768322637693</v>
+        <v>7.367486872243201</v>
       </c>
       <c r="E19">
-        <v>9.625535440300347</v>
+        <v>9.587045414690067</v>
       </c>
       <c r="F19">
-        <v>20.57244063741159</v>
+        <v>20.54974006934739</v>
       </c>
       <c r="G19">
-        <v>21.91316565326011</v>
+        <v>21.45044357923847</v>
       </c>
       <c r="H19">
-        <v>3.067141965977031</v>
+        <v>3.063568731548113</v>
       </c>
       <c r="I19">
-        <v>3.160926067950229</v>
+        <v>2.962012302580649</v>
       </c>
       <c r="J19">
-        <v>8.514256418214746</v>
+        <v>9.004093237895024</v>
       </c>
       <c r="K19">
-        <v>13.19888457087406</v>
+        <v>12.69832647222144</v>
       </c>
       <c r="L19">
-        <v>6.391269204857595</v>
+        <v>10.41569020506684</v>
       </c>
       <c r="M19">
-        <v>16.09331268082674</v>
+        <v>8.245573782029298</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.369176354570503</v>
       </c>
       <c r="O19">
-        <v>13.00226787295553</v>
+        <v>16.02202323420337</v>
       </c>
       <c r="P19">
-        <v>12.60666309895656</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.95089046016451</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.05882015930599</v>
+      </c>
+      <c r="R19">
+        <v>12.50568180655657</v>
+      </c>
+      <c r="S19">
+        <v>13.94698720195848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.85575089441496</v>
+        <v>7.762839200714243</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.276960958594341</v>
+        <v>8.277758763204107</v>
       </c>
       <c r="E20">
-        <v>11.31426029731134</v>
+        <v>11.27953727214247</v>
       </c>
       <c r="F20">
-        <v>22.15641835284667</v>
+        <v>22.0724837673873</v>
       </c>
       <c r="G20">
-        <v>23.69774497002269</v>
+        <v>23.47679262895414</v>
       </c>
       <c r="H20">
-        <v>2.071085974936933</v>
+        <v>2.06135651518249</v>
       </c>
       <c r="I20">
-        <v>3.11680498559964</v>
+        <v>2.926401303725401</v>
       </c>
       <c r="J20">
-        <v>8.77412443014175</v>
+        <v>9.146899934622295</v>
       </c>
       <c r="K20">
-        <v>13.19138025721782</v>
+        <v>12.68165194580836</v>
       </c>
       <c r="L20">
-        <v>6.943805640133545</v>
+        <v>10.41737165273547</v>
       </c>
       <c r="M20">
-        <v>16.61548312358088</v>
+        <v>8.230566402772302</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.918280012860867</v>
       </c>
       <c r="O20">
-        <v>14.51886971516705</v>
+        <v>16.55987641092555</v>
       </c>
       <c r="P20">
-        <v>12.487026474066</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.65857078627516</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.5832906240084</v>
+      </c>
+      <c r="R20">
+        <v>12.39466834677899</v>
+      </c>
+      <c r="S20">
+        <v>14.60787664990601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.281177488102015</v>
+        <v>8.163220772249607</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.654554942839402</v>
+        <v>8.720636114816356</v>
       </c>
       <c r="E21">
-        <v>11.79340032634859</v>
+        <v>11.78380228143597</v>
       </c>
       <c r="F21">
-        <v>22.84497141284689</v>
+        <v>22.48126357070186</v>
       </c>
       <c r="G21">
-        <v>24.58992369246663</v>
+        <v>26.2116414563875</v>
       </c>
       <c r="H21">
-        <v>2.311775600758558</v>
+        <v>2.288099690974358</v>
       </c>
       <c r="I21">
-        <v>3.016978905461651</v>
+        <v>2.846172309519218</v>
       </c>
       <c r="J21">
-        <v>8.826941627507178</v>
+        <v>8.437963063204803</v>
       </c>
       <c r="K21">
-        <v>12.9757675703449</v>
+        <v>12.4711462844724</v>
       </c>
       <c r="L21">
-        <v>7.096670766960446</v>
+        <v>10.31097857137235</v>
       </c>
       <c r="M21">
-        <v>17.51731841559537</v>
+        <v>8.07195520521779</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.063598173555723</v>
       </c>
       <c r="O21">
-        <v>15.34707570020411</v>
+        <v>17.37082004070725</v>
       </c>
       <c r="P21">
-        <v>12.36342985277171</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.9209963165073</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.36750539823279</v>
+      </c>
+      <c r="R21">
+        <v>12.3065171397478</v>
+      </c>
+      <c r="S21">
+        <v>14.64644009203005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.588034092825991</v>
+        <v>8.455493060454156</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.856159783342097</v>
+        <v>8.968282396182056</v>
       </c>
       <c r="E22">
-        <v>12.02058681272078</v>
+        <v>12.02993576926636</v>
       </c>
       <c r="F22">
-        <v>23.24057956350286</v>
+        <v>22.67970118338508</v>
       </c>
       <c r="G22">
-        <v>25.12127652584126</v>
+        <v>28.04072466475485</v>
       </c>
       <c r="H22">
-        <v>2.459754161846261</v>
+        <v>2.427265701823479</v>
       </c>
       <c r="I22">
-        <v>2.942530708832951</v>
+        <v>2.78183523898542</v>
       </c>
       <c r="J22">
-        <v>8.856567991294007</v>
+        <v>7.987166457654508</v>
       </c>
       <c r="K22">
-        <v>12.84055011428731</v>
+        <v>12.33790924088749</v>
       </c>
       <c r="L22">
-        <v>7.165877086991348</v>
+        <v>10.25446350534703</v>
       </c>
       <c r="M22">
-        <v>18.05792820598323</v>
+        <v>7.977337564923746</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.128195520336426</v>
       </c>
       <c r="O22">
-        <v>15.80060526639581</v>
+        <v>17.84759553049011</v>
       </c>
       <c r="P22">
-        <v>12.28576467900762</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.07647912522751</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.78999910611276</v>
+      </c>
+      <c r="R22">
+        <v>12.25466712218802</v>
+      </c>
+      <c r="S22">
+        <v>14.64143317896908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.462668223774381</v>
+        <v>8.329451257243026</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.747918598025684</v>
+        <v>8.828281956785574</v>
       </c>
       <c r="E23">
-        <v>11.9014222160884</v>
+        <v>11.89693546093051</v>
       </c>
       <c r="F23">
-        <v>23.04131723535656</v>
+        <v>22.61374597472292</v>
       </c>
       <c r="G23">
-        <v>24.85786398310787</v>
+        <v>26.87845859800557</v>
       </c>
       <c r="H23">
-        <v>2.381197460592206</v>
+        <v>2.354287180778268</v>
       </c>
       <c r="I23">
-        <v>2.970383541597784</v>
+        <v>2.801691919636485</v>
       </c>
       <c r="J23">
-        <v>8.844221260354876</v>
+        <v>8.297819408611129</v>
       </c>
       <c r="K23">
-        <v>12.91925024508894</v>
+        <v>12.41504046684342</v>
       </c>
       <c r="L23">
-        <v>7.130284789705588</v>
+        <v>10.2859044751176</v>
       </c>
       <c r="M23">
-        <v>17.75710996511245</v>
+        <v>8.034869180184764</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.095296206085881</v>
       </c>
       <c r="O23">
-        <v>15.55060725033336</v>
+        <v>17.59464107476897</v>
       </c>
       <c r="P23">
-        <v>12.32440584845901</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.00208240292478</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.56347710443051</v>
+      </c>
+      <c r="R23">
+        <v>12.27696259053661</v>
+      </c>
+      <c r="S23">
+        <v>14.67569106582661</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.89995021185976</v>
+        <v>7.796808396602414</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.329292122567352</v>
+        <v>8.329896404877491</v>
       </c>
       <c r="E24">
-        <v>11.43679985659178</v>
+        <v>11.40187516097176</v>
       </c>
       <c r="F24">
-        <v>22.27038051085139</v>
+        <v>22.18606262384037</v>
       </c>
       <c r="G24">
-        <v>23.83186521839011</v>
+        <v>23.59302874854807</v>
       </c>
       <c r="H24">
-        <v>2.076745873434759</v>
+        <v>2.067037459238056</v>
       </c>
       <c r="I24">
-        <v>3.098789675352501</v>
+        <v>2.904581060119733</v>
       </c>
       <c r="J24">
-        <v>8.798281424390792</v>
+        <v>9.175973617310992</v>
       </c>
       <c r="K24">
-        <v>13.21049645140685</v>
+        <v>12.69751738032092</v>
       </c>
       <c r="L24">
-        <v>6.991030430290136</v>
+        <v>10.42847922082271</v>
       </c>
       <c r="M24">
-        <v>16.59563519564198</v>
+        <v>8.243526464884287</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.965324587569216</v>
       </c>
       <c r="O24">
-        <v>14.58486125667404</v>
+        <v>16.54367983342766</v>
       </c>
       <c r="P24">
-        <v>12.47936820110633</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.71757790166827</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.65149285198645</v>
+      </c>
+      <c r="R24">
+        <v>12.38651443144555</v>
+      </c>
+      <c r="S24">
+        <v>14.66665028611279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.232017416836698</v>
+        <v>7.2173557538215</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.85694927574982</v>
+        <v>7.850692574400499</v>
       </c>
       <c r="E25">
-        <v>10.9140492684812</v>
+        <v>10.88459248777621</v>
       </c>
       <c r="F25">
-        <v>21.44847447131923</v>
+        <v>21.41598130706467</v>
       </c>
       <c r="G25">
-        <v>22.73874996805539</v>
+        <v>22.32066138502543</v>
       </c>
       <c r="H25">
-        <v>1.733343004466399</v>
+        <v>1.731086889580363</v>
       </c>
       <c r="I25">
-        <v>3.246396769645906</v>
+        <v>3.027647955292732</v>
       </c>
       <c r="J25">
-        <v>8.762986349188882</v>
+        <v>9.196964165092952</v>
       </c>
       <c r="K25">
-        <v>13.5340231112369</v>
+        <v>12.99521138034488</v>
       </c>
       <c r="L25">
-        <v>6.835665276285563</v>
+        <v>10.61899057067544</v>
       </c>
       <c r="M25">
-        <v>15.24715649576556</v>
+        <v>8.484124981199161</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.815692972140856</v>
       </c>
       <c r="O25">
-        <v>13.47229296112764</v>
+        <v>15.16509743639397</v>
       </c>
       <c r="P25">
-        <v>12.65513668218383</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.43625735993064</v>
+        <v>13.52628614446766</v>
+      </c>
+      <c r="R25">
+        <v>12.53840148159352</v>
+      </c>
+      <c r="S25">
+        <v>14.42244360356804</v>
       </c>
     </row>
   </sheetData>
